--- a/01. HUB/volumen & xenofobia/tasa xenobia/tasa xenofobia regiones/colombia_regiones_categories_.xlsx
+++ b/01. HUB/volumen & xenofobia/tasa xenobia/tasa xenofobia regiones/colombia_regiones_categories_.xlsx
@@ -1,26 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Documents\BX-HUB-Indicadores\BX-HUB-Indicadores\01. HUB\tasa xenobia\tasa xenofobia regiones\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Documents\BX-HUB-Indicadores\01. HUB\volumen &amp; xenofobia\tasa xenobia\tasa xenofobia regiones\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{06452480-3394-4039-9C8C-3E6D7D1F19D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45F9C69C-E889-47A6-8B65-B1793FB2C5D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="166">
   <si>
     <t>Chart Data Export</t>
   </si>
@@ -479,6 +492,45 @@
   </si>
   <si>
     <t>Putumayo, Colombia</t>
+  </si>
+  <si>
+    <t>2024-10-07 05:00:00.0</t>
+  </si>
+  <si>
+    <t>2024-10-14 05:00:00.0</t>
+  </si>
+  <si>
+    <t>2024-10-21 05:00:00.0</t>
+  </si>
+  <si>
+    <t>2024-10-28 05:00:00.0</t>
+  </si>
+  <si>
+    <t>2024-11-04 05:00:00.0</t>
+  </si>
+  <si>
+    <t>2024-11-11 05:00:00.0</t>
+  </si>
+  <si>
+    <t>2024-11-18 05:00:00.0</t>
+  </si>
+  <si>
+    <t>2024-11-25 05:00:00.0</t>
+  </si>
+  <si>
+    <t>2024-12-02 05:00:00.0</t>
+  </si>
+  <si>
+    <t>2024-12-09 05:00:00.0</t>
+  </si>
+  <si>
+    <t>2024-12-16 05:00:00.0</t>
+  </si>
+  <si>
+    <t>2024-12-23 05:00:00.0</t>
+  </si>
+  <si>
+    <t>2024-12-30 05:00:00.0</t>
   </si>
 </sst>
 </file>
@@ -820,13 +872,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:DC40"/>
+  <dimension ref="A1:DP40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:120" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -834,7 +888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:120" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -842,7 +896,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:120" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -850,7 +904,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:120" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -858,7 +912,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:120" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -866,7 +920,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:120" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -874,7 +928,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:120" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -882,7 +936,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:120" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -890,7 +944,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:120" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -898,7 +952,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:120" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>3</v>
       </c>
@@ -1220,8 +1274,47 @@
       <c r="DC11" t="s">
         <v>123</v>
       </c>
+      <c r="DD11" t="s">
+        <v>153</v>
+      </c>
+      <c r="DE11" t="s">
+        <v>154</v>
+      </c>
+      <c r="DF11" t="s">
+        <v>155</v>
+      </c>
+      <c r="DG11" t="s">
+        <v>156</v>
+      </c>
+      <c r="DH11" t="s">
+        <v>157</v>
+      </c>
+      <c r="DI11" t="s">
+        <v>158</v>
+      </c>
+      <c r="DJ11" t="s">
+        <v>159</v>
+      </c>
+      <c r="DK11" t="s">
+        <v>160</v>
+      </c>
+      <c r="DL11" t="s">
+        <v>161</v>
+      </c>
+      <c r="DM11" t="s">
+        <v>162</v>
+      </c>
+      <c r="DN11" t="s">
+        <v>163</v>
+      </c>
+      <c r="DO11" t="s">
+        <v>164</v>
+      </c>
+      <c r="DP11" t="s">
+        <v>165</v>
+      </c>
     </row>
-    <row r="12" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:120" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>124</v>
       </c>
@@ -1541,10 +1634,49 @@
         <v>1063</v>
       </c>
       <c r="DC12">
-        <v>372</v>
+        <v>268</v>
+      </c>
+      <c r="DD12">
+        <v>408</v>
+      </c>
+      <c r="DE12">
+        <v>556</v>
+      </c>
+      <c r="DF12">
+        <v>376</v>
+      </c>
+      <c r="DG12">
+        <v>540</v>
+      </c>
+      <c r="DH12">
+        <v>516</v>
+      </c>
+      <c r="DI12">
+        <v>376</v>
+      </c>
+      <c r="DJ12">
+        <v>346</v>
+      </c>
+      <c r="DK12">
+        <v>429</v>
+      </c>
+      <c r="DL12">
+        <v>374</v>
+      </c>
+      <c r="DM12">
+        <v>350</v>
+      </c>
+      <c r="DN12">
+        <v>329</v>
+      </c>
+      <c r="DO12">
+        <v>411</v>
+      </c>
+      <c r="DP12">
+        <v>104</v>
       </c>
     </row>
-    <row r="13" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:120" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>125</v>
       </c>
@@ -1864,10 +1996,49 @@
         <v>303</v>
       </c>
       <c r="DC13">
+        <v>64</v>
+      </c>
+      <c r="DD13">
+        <v>106</v>
+      </c>
+      <c r="DE13">
+        <v>129</v>
+      </c>
+      <c r="DF13">
         <v>101</v>
       </c>
+      <c r="DG13">
+        <v>100</v>
+      </c>
+      <c r="DH13">
+        <v>149</v>
+      </c>
+      <c r="DI13">
+        <v>86</v>
+      </c>
+      <c r="DJ13">
+        <v>96</v>
+      </c>
+      <c r="DK13">
+        <v>108</v>
+      </c>
+      <c r="DL13">
+        <v>106</v>
+      </c>
+      <c r="DM13">
+        <v>80</v>
+      </c>
+      <c r="DN13">
+        <v>82</v>
+      </c>
+      <c r="DO13">
+        <v>98</v>
+      </c>
+      <c r="DP13">
+        <v>33</v>
+      </c>
     </row>
-    <row r="14" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:120" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>126</v>
       </c>
@@ -2187,10 +2358,49 @@
         <v>135</v>
       </c>
       <c r="DC14">
-        <v>46</v>
+        <v>40</v>
+      </c>
+      <c r="DD14">
+        <v>33</v>
+      </c>
+      <c r="DE14">
+        <v>50</v>
+      </c>
+      <c r="DF14">
+        <v>37</v>
+      </c>
+      <c r="DG14">
+        <v>30</v>
+      </c>
+      <c r="DH14">
+        <v>50</v>
+      </c>
+      <c r="DI14">
+        <v>65</v>
+      </c>
+      <c r="DJ14">
+        <v>48</v>
+      </c>
+      <c r="DK14">
+        <v>90</v>
+      </c>
+      <c r="DL14">
+        <v>136</v>
+      </c>
+      <c r="DM14">
+        <v>91</v>
+      </c>
+      <c r="DN14">
+        <v>51</v>
+      </c>
+      <c r="DO14">
+        <v>49</v>
+      </c>
+      <c r="DP14">
+        <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:120" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>127</v>
       </c>
@@ -2510,10 +2720,49 @@
         <v>153</v>
       </c>
       <c r="DC15">
-        <v>50</v>
+        <v>40</v>
+      </c>
+      <c r="DD15">
+        <v>67</v>
+      </c>
+      <c r="DE15">
+        <v>82</v>
+      </c>
+      <c r="DF15">
+        <v>41</v>
+      </c>
+      <c r="DG15">
+        <v>60</v>
+      </c>
+      <c r="DH15">
+        <v>75</v>
+      </c>
+      <c r="DI15">
+        <v>48</v>
+      </c>
+      <c r="DJ15">
+        <v>41</v>
+      </c>
+      <c r="DK15">
+        <v>58</v>
+      </c>
+      <c r="DL15">
+        <v>46</v>
+      </c>
+      <c r="DM15">
+        <v>73</v>
+      </c>
+      <c r="DN15">
+        <v>61</v>
+      </c>
+      <c r="DO15">
+        <v>81</v>
+      </c>
+      <c r="DP15">
+        <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:120" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>128</v>
       </c>
@@ -2833,10 +3082,49 @@
         <v>47</v>
       </c>
       <c r="DC16">
+        <v>22</v>
+      </c>
+      <c r="DD16">
+        <v>23</v>
+      </c>
+      <c r="DE16">
+        <v>15</v>
+      </c>
+      <c r="DF16">
         <v>17</v>
       </c>
+      <c r="DG16">
+        <v>16</v>
+      </c>
+      <c r="DH16">
+        <v>27</v>
+      </c>
+      <c r="DI16">
+        <v>22</v>
+      </c>
+      <c r="DJ16">
+        <v>15</v>
+      </c>
+      <c r="DK16">
+        <v>14</v>
+      </c>
+      <c r="DL16">
+        <v>12</v>
+      </c>
+      <c r="DM16">
+        <v>10</v>
+      </c>
+      <c r="DN16">
+        <v>19</v>
+      </c>
+      <c r="DO16">
+        <v>24</v>
+      </c>
+      <c r="DP16">
+        <v>5</v>
+      </c>
     </row>
-    <row r="17" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:120" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>129</v>
       </c>
@@ -3156,10 +3444,49 @@
         <v>24</v>
       </c>
       <c r="DC17">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="DD17">
+        <v>14</v>
+      </c>
+      <c r="DE17">
+        <v>32</v>
+      </c>
+      <c r="DF17">
+        <v>18</v>
+      </c>
+      <c r="DG17">
+        <v>8</v>
+      </c>
+      <c r="DH17">
+        <v>13</v>
+      </c>
+      <c r="DI17">
+        <v>10</v>
+      </c>
+      <c r="DJ17">
+        <v>18</v>
+      </c>
+      <c r="DK17">
+        <v>6</v>
+      </c>
+      <c r="DL17">
+        <v>21</v>
+      </c>
+      <c r="DM17">
+        <v>17</v>
+      </c>
+      <c r="DN17">
+        <v>5</v>
+      </c>
+      <c r="DO17">
+        <v>8</v>
+      </c>
+      <c r="DP17">
+        <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:120" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>130</v>
       </c>
@@ -3479,10 +3806,49 @@
         <v>13</v>
       </c>
       <c r="DC18">
-        <v>2</v>
+        <v>7</v>
+      </c>
+      <c r="DD18">
+        <v>1</v>
+      </c>
+      <c r="DE18">
+        <v>2</v>
+      </c>
+      <c r="DF18">
+        <v>2</v>
+      </c>
+      <c r="DG18">
+        <v>4</v>
+      </c>
+      <c r="DH18">
+        <v>8</v>
+      </c>
+      <c r="DI18">
+        <v>2</v>
+      </c>
+      <c r="DJ18">
+        <v>2</v>
+      </c>
+      <c r="DK18">
+        <v>7</v>
+      </c>
+      <c r="DL18">
+        <v>4</v>
+      </c>
+      <c r="DM18">
+        <v>6</v>
+      </c>
+      <c r="DN18">
+        <v>4</v>
+      </c>
+      <c r="DO18">
+        <v>8</v>
+      </c>
+      <c r="DP18">
+        <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:120" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>131</v>
       </c>
@@ -3802,10 +4168,49 @@
         <v>24</v>
       </c>
       <c r="DC19">
-        <v>8</v>
+        <v>4</v>
+      </c>
+      <c r="DD19">
+        <v>3</v>
+      </c>
+      <c r="DE19">
+        <v>3</v>
+      </c>
+      <c r="DF19">
+        <v>4</v>
+      </c>
+      <c r="DG19">
+        <v>7</v>
+      </c>
+      <c r="DH19">
+        <v>3</v>
+      </c>
+      <c r="DI19">
+        <v>0</v>
+      </c>
+      <c r="DJ19">
+        <v>5</v>
+      </c>
+      <c r="DK19">
+        <v>1</v>
+      </c>
+      <c r="DL19">
+        <v>2</v>
+      </c>
+      <c r="DM19">
+        <v>4</v>
+      </c>
+      <c r="DN19">
+        <v>5</v>
+      </c>
+      <c r="DO19">
+        <v>5</v>
+      </c>
+      <c r="DP19">
+        <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:120" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>132</v>
       </c>
@@ -4125,10 +4530,49 @@
         <v>2</v>
       </c>
       <c r="DC20">
+        <v>1</v>
+      </c>
+      <c r="DD20">
+        <v>2</v>
+      </c>
+      <c r="DE20">
+        <v>3</v>
+      </c>
+      <c r="DF20">
+        <v>1</v>
+      </c>
+      <c r="DG20">
+        <v>1</v>
+      </c>
+      <c r="DH20">
+        <v>1</v>
+      </c>
+      <c r="DI20">
+        <v>5</v>
+      </c>
+      <c r="DJ20">
+        <v>3</v>
+      </c>
+      <c r="DK20">
+        <v>2</v>
+      </c>
+      <c r="DL20">
+        <v>1</v>
+      </c>
+      <c r="DM20">
+        <v>1</v>
+      </c>
+      <c r="DN20">
+        <v>4</v>
+      </c>
+      <c r="DO20">
+        <v>1</v>
+      </c>
+      <c r="DP20">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:120" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>133</v>
       </c>
@@ -4448,10 +4892,49 @@
         <v>8</v>
       </c>
       <c r="DC21">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="DD21">
+        <v>6</v>
+      </c>
+      <c r="DE21">
+        <v>4</v>
+      </c>
+      <c r="DF21">
+        <v>5</v>
+      </c>
+      <c r="DG21">
+        <v>5</v>
+      </c>
+      <c r="DH21">
+        <v>8</v>
+      </c>
+      <c r="DI21">
+        <v>5</v>
+      </c>
+      <c r="DJ21">
+        <v>4</v>
+      </c>
+      <c r="DK21">
+        <v>3</v>
+      </c>
+      <c r="DL21">
+        <v>8</v>
+      </c>
+      <c r="DM21">
+        <v>4</v>
+      </c>
+      <c r="DN21">
+        <v>2</v>
+      </c>
+      <c r="DO21">
+        <v>1</v>
+      </c>
+      <c r="DP21">
+        <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:120" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>134</v>
       </c>
@@ -4771,10 +5254,49 @@
         <v>11</v>
       </c>
       <c r="DC22">
+        <v>6</v>
+      </c>
+      <c r="DD22">
+        <v>4</v>
+      </c>
+      <c r="DE22">
+        <v>2</v>
+      </c>
+      <c r="DF22">
+        <v>2</v>
+      </c>
+      <c r="DG22">
+        <v>2</v>
+      </c>
+      <c r="DH22">
+        <v>3</v>
+      </c>
+      <c r="DI22">
+        <v>1</v>
+      </c>
+      <c r="DJ22">
         <v>7</v>
       </c>
+      <c r="DK22">
+        <v>5</v>
+      </c>
+      <c r="DL22">
+        <v>1</v>
+      </c>
+      <c r="DM22">
+        <v>1</v>
+      </c>
+      <c r="DN22">
+        <v>7</v>
+      </c>
+      <c r="DO22">
+        <v>4</v>
+      </c>
+      <c r="DP22">
+        <v>1</v>
+      </c>
     </row>
-    <row r="23" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:120" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>135</v>
       </c>
@@ -5094,10 +5616,49 @@
         <v>13</v>
       </c>
       <c r="DC23">
+        <v>1</v>
+      </c>
+      <c r="DD23">
+        <v>4</v>
+      </c>
+      <c r="DE23">
+        <v>7</v>
+      </c>
+      <c r="DF23">
+        <v>4</v>
+      </c>
+      <c r="DG23">
+        <v>7</v>
+      </c>
+      <c r="DH23">
+        <v>1</v>
+      </c>
+      <c r="DI23">
+        <v>2</v>
+      </c>
+      <c r="DJ23">
+        <v>9</v>
+      </c>
+      <c r="DK23">
+        <v>16</v>
+      </c>
+      <c r="DL23">
         <v>6</v>
       </c>
+      <c r="DM23">
+        <v>1</v>
+      </c>
+      <c r="DN23">
+        <v>4</v>
+      </c>
+      <c r="DO23">
+        <v>5</v>
+      </c>
+      <c r="DP23">
+        <v>0</v>
+      </c>
     </row>
-    <row r="24" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:120" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>136</v>
       </c>
@@ -5417,10 +5978,49 @@
         <v>20</v>
       </c>
       <c r="DC24">
+        <v>5</v>
+      </c>
+      <c r="DD24">
+        <v>12</v>
+      </c>
+      <c r="DE24">
+        <v>10</v>
+      </c>
+      <c r="DF24">
+        <v>6</v>
+      </c>
+      <c r="DG24">
+        <v>2</v>
+      </c>
+      <c r="DH24">
+        <v>6</v>
+      </c>
+      <c r="DI24">
+        <v>5</v>
+      </c>
+      <c r="DJ24">
         <v>8</v>
       </c>
+      <c r="DK24">
+        <v>11</v>
+      </c>
+      <c r="DL24">
+        <v>7</v>
+      </c>
+      <c r="DM24">
+        <v>6</v>
+      </c>
+      <c r="DN24">
+        <v>3</v>
+      </c>
+      <c r="DO24">
+        <v>2</v>
+      </c>
+      <c r="DP24">
+        <v>2</v>
+      </c>
     </row>
-    <row r="25" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:120" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>137</v>
       </c>
@@ -5740,10 +6340,49 @@
         <v>47</v>
       </c>
       <c r="DC25">
-        <v>11</v>
+        <v>3</v>
+      </c>
+      <c r="DD25">
+        <v>9</v>
+      </c>
+      <c r="DE25">
+        <v>6</v>
+      </c>
+      <c r="DF25">
+        <v>9</v>
+      </c>
+      <c r="DG25">
+        <v>6</v>
+      </c>
+      <c r="DH25">
+        <v>9</v>
+      </c>
+      <c r="DI25">
+        <v>15</v>
+      </c>
+      <c r="DJ25">
+        <v>9</v>
+      </c>
+      <c r="DK25">
+        <v>16</v>
+      </c>
+      <c r="DL25">
+        <v>9</v>
+      </c>
+      <c r="DM25">
+        <v>5</v>
+      </c>
+      <c r="DN25">
+        <v>8</v>
+      </c>
+      <c r="DO25">
+        <v>7</v>
+      </c>
+      <c r="DP25">
+        <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:120" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>138</v>
       </c>
@@ -6063,10 +6702,49 @@
         <v>22</v>
       </c>
       <c r="DC26">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="DD26">
+        <v>10</v>
+      </c>
+      <c r="DE26">
+        <v>15</v>
+      </c>
+      <c r="DF26">
+        <v>3</v>
+      </c>
+      <c r="DG26">
+        <v>6</v>
+      </c>
+      <c r="DH26">
+        <v>11</v>
+      </c>
+      <c r="DI26">
+        <v>2</v>
+      </c>
+      <c r="DJ26">
+        <v>7</v>
+      </c>
+      <c r="DK26">
+        <v>5</v>
+      </c>
+      <c r="DL26">
+        <v>8</v>
+      </c>
+      <c r="DM26">
+        <v>13</v>
+      </c>
+      <c r="DN26">
+        <v>4</v>
+      </c>
+      <c r="DO26">
+        <v>11</v>
+      </c>
+      <c r="DP26">
+        <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:120" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>139</v>
       </c>
@@ -6386,10 +7064,49 @@
         <v>24</v>
       </c>
       <c r="DC27">
+        <v>3</v>
+      </c>
+      <c r="DD27">
+        <v>3</v>
+      </c>
+      <c r="DE27">
         <v>8</v>
       </c>
+      <c r="DF27">
+        <v>7</v>
+      </c>
+      <c r="DG27">
+        <v>2</v>
+      </c>
+      <c r="DH27">
+        <v>4</v>
+      </c>
+      <c r="DI27">
+        <v>4</v>
+      </c>
+      <c r="DJ27">
+        <v>2</v>
+      </c>
+      <c r="DK27">
+        <v>2</v>
+      </c>
+      <c r="DL27">
+        <v>4</v>
+      </c>
+      <c r="DM27">
+        <v>1</v>
+      </c>
+      <c r="DN27">
+        <v>3</v>
+      </c>
+      <c r="DO27">
+        <v>4</v>
+      </c>
+      <c r="DP27">
+        <v>0</v>
+      </c>
     </row>
-    <row r="28" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:120" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>140</v>
       </c>
@@ -6709,10 +7426,49 @@
         <v>7</v>
       </c>
       <c r="DC28">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="DD28">
+        <v>5</v>
+      </c>
+      <c r="DE28">
+        <v>3</v>
+      </c>
+      <c r="DF28">
+        <v>4</v>
+      </c>
+      <c r="DG28">
+        <v>2</v>
+      </c>
+      <c r="DH28">
+        <v>3</v>
+      </c>
+      <c r="DI28">
+        <v>2</v>
+      </c>
+      <c r="DJ28">
+        <v>0</v>
+      </c>
+      <c r="DK28">
+        <v>0</v>
+      </c>
+      <c r="DL28">
+        <v>0</v>
+      </c>
+      <c r="DM28">
+        <v>2</v>
+      </c>
+      <c r="DN28">
+        <v>2</v>
+      </c>
+      <c r="DO28">
+        <v>3</v>
+      </c>
+      <c r="DP28">
+        <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:120" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>141</v>
       </c>
@@ -7032,10 +7788,49 @@
         <v>5</v>
       </c>
       <c r="DC29">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="DD29">
+        <v>1</v>
+      </c>
+      <c r="DE29">
+        <v>4</v>
+      </c>
+      <c r="DF29">
+        <v>1</v>
+      </c>
+      <c r="DG29">
+        <v>1</v>
+      </c>
+      <c r="DH29">
+        <v>0</v>
+      </c>
+      <c r="DI29">
+        <v>1</v>
+      </c>
+      <c r="DJ29">
+        <v>0</v>
+      </c>
+      <c r="DK29">
+        <v>0</v>
+      </c>
+      <c r="DL29">
+        <v>0</v>
+      </c>
+      <c r="DM29">
+        <v>0</v>
+      </c>
+      <c r="DN29">
+        <v>1</v>
+      </c>
+      <c r="DO29">
+        <v>0</v>
+      </c>
+      <c r="DP29">
+        <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:120" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>142</v>
       </c>
@@ -7355,10 +8150,49 @@
         <v>6</v>
       </c>
       <c r="DC30">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="DD30">
+        <v>3</v>
+      </c>
+      <c r="DE30">
+        <v>0</v>
+      </c>
+      <c r="DF30">
+        <v>4</v>
+      </c>
+      <c r="DG30">
+        <v>1</v>
+      </c>
+      <c r="DH30">
+        <v>1</v>
+      </c>
+      <c r="DI30">
+        <v>2</v>
+      </c>
+      <c r="DJ30">
+        <v>2</v>
+      </c>
+      <c r="DK30">
+        <v>1</v>
+      </c>
+      <c r="DL30">
+        <v>3</v>
+      </c>
+      <c r="DM30">
+        <v>1</v>
+      </c>
+      <c r="DN30">
+        <v>1</v>
+      </c>
+      <c r="DO30">
+        <v>2</v>
+      </c>
+      <c r="DP30">
+        <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:120" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>143</v>
       </c>
@@ -7680,8 +8514,47 @@
       <c r="DC31">
         <v>7</v>
       </c>
+      <c r="DD31">
+        <v>2</v>
+      </c>
+      <c r="DE31">
+        <v>4</v>
+      </c>
+      <c r="DF31">
+        <v>1</v>
+      </c>
+      <c r="DG31">
+        <v>2</v>
+      </c>
+      <c r="DH31">
+        <v>3</v>
+      </c>
+      <c r="DI31">
+        <v>2</v>
+      </c>
+      <c r="DJ31">
+        <v>1</v>
+      </c>
+      <c r="DK31">
+        <v>3</v>
+      </c>
+      <c r="DL31">
+        <v>3</v>
+      </c>
+      <c r="DM31">
+        <v>3</v>
+      </c>
+      <c r="DN31">
+        <v>2</v>
+      </c>
+      <c r="DO31">
+        <v>2</v>
+      </c>
+      <c r="DP31">
+        <v>0</v>
+      </c>
     </row>
-    <row r="32" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:120" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>144</v>
       </c>
@@ -8003,8 +8876,47 @@
       <c r="DC32">
         <v>0</v>
       </c>
+      <c r="DD32">
+        <v>0</v>
+      </c>
+      <c r="DE32">
+        <v>0</v>
+      </c>
+      <c r="DF32">
+        <v>0</v>
+      </c>
+      <c r="DG32">
+        <v>0</v>
+      </c>
+      <c r="DH32">
+        <v>0</v>
+      </c>
+      <c r="DI32">
+        <v>0</v>
+      </c>
+      <c r="DJ32">
+        <v>0</v>
+      </c>
+      <c r="DK32">
+        <v>0</v>
+      </c>
+      <c r="DL32">
+        <v>0</v>
+      </c>
+      <c r="DM32">
+        <v>0</v>
+      </c>
+      <c r="DN32">
+        <v>0</v>
+      </c>
+      <c r="DO32">
+        <v>0</v>
+      </c>
+      <c r="DP32">
+        <v>0</v>
+      </c>
     </row>
-    <row r="33" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:120" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>145</v>
       </c>
@@ -8324,10 +9236,49 @@
         <v>7</v>
       </c>
       <c r="DC33">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="DD33">
+        <v>2</v>
+      </c>
+      <c r="DE33">
+        <v>4</v>
+      </c>
+      <c r="DF33">
+        <v>2</v>
+      </c>
+      <c r="DG33">
+        <v>3</v>
+      </c>
+      <c r="DH33">
+        <v>1</v>
+      </c>
+      <c r="DI33">
+        <v>1</v>
+      </c>
+      <c r="DJ33">
+        <v>1</v>
+      </c>
+      <c r="DK33">
+        <v>1</v>
+      </c>
+      <c r="DL33">
+        <v>1</v>
+      </c>
+      <c r="DM33">
+        <v>1</v>
+      </c>
+      <c r="DN33">
+        <v>1</v>
+      </c>
+      <c r="DO33">
+        <v>3</v>
+      </c>
+      <c r="DP33">
+        <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:120" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>146</v>
       </c>
@@ -8647,10 +9598,49 @@
         <v>10</v>
       </c>
       <c r="DC34">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="DD34">
+        <v>4</v>
+      </c>
+      <c r="DE34">
+        <v>4</v>
+      </c>
+      <c r="DF34">
+        <v>5</v>
+      </c>
+      <c r="DG34">
+        <v>3</v>
+      </c>
+      <c r="DH34">
+        <v>4</v>
+      </c>
+      <c r="DI34">
+        <v>1</v>
+      </c>
+      <c r="DJ34">
+        <v>3</v>
+      </c>
+      <c r="DK34">
+        <v>4</v>
+      </c>
+      <c r="DL34">
+        <v>6</v>
+      </c>
+      <c r="DM34">
+        <v>2</v>
+      </c>
+      <c r="DN34">
+        <v>1</v>
+      </c>
+      <c r="DO34">
+        <v>1</v>
+      </c>
+      <c r="DP34">
+        <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:120" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>147</v>
       </c>
@@ -8970,10 +9960,49 @@
         <v>0</v>
       </c>
       <c r="DC35">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="DD35">
+        <v>1</v>
+      </c>
+      <c r="DE35">
+        <v>0</v>
+      </c>
+      <c r="DF35">
+        <v>0</v>
+      </c>
+      <c r="DG35">
+        <v>0</v>
+      </c>
+      <c r="DH35">
+        <v>0</v>
+      </c>
+      <c r="DI35">
+        <v>0</v>
+      </c>
+      <c r="DJ35">
+        <v>0</v>
+      </c>
+      <c r="DK35">
+        <v>0</v>
+      </c>
+      <c r="DL35">
+        <v>0</v>
+      </c>
+      <c r="DM35">
+        <v>0</v>
+      </c>
+      <c r="DN35">
+        <v>0</v>
+      </c>
+      <c r="DO35">
+        <v>0</v>
+      </c>
+      <c r="DP35">
+        <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:120" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>148</v>
       </c>
@@ -9295,8 +10324,47 @@
       <c r="DC36">
         <v>0</v>
       </c>
+      <c r="DD36">
+        <v>0</v>
+      </c>
+      <c r="DE36">
+        <v>0</v>
+      </c>
+      <c r="DF36">
+        <v>0</v>
+      </c>
+      <c r="DG36">
+        <v>0</v>
+      </c>
+      <c r="DH36">
+        <v>0</v>
+      </c>
+      <c r="DI36">
+        <v>0</v>
+      </c>
+      <c r="DJ36">
+        <v>0</v>
+      </c>
+      <c r="DK36">
+        <v>0</v>
+      </c>
+      <c r="DL36">
+        <v>0</v>
+      </c>
+      <c r="DM36">
+        <v>0</v>
+      </c>
+      <c r="DN36">
+        <v>0</v>
+      </c>
+      <c r="DO36">
+        <v>0</v>
+      </c>
+      <c r="DP36">
+        <v>0</v>
+      </c>
     </row>
-    <row r="37" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:120" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>149</v>
       </c>
@@ -9616,10 +10684,49 @@
         <v>0</v>
       </c>
       <c r="DC37">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="DD37">
+        <v>0</v>
+      </c>
+      <c r="DE37">
+        <v>0</v>
+      </c>
+      <c r="DF37">
+        <v>0</v>
+      </c>
+      <c r="DG37">
+        <v>0</v>
+      </c>
+      <c r="DH37">
+        <v>0</v>
+      </c>
+      <c r="DI37">
+        <v>0</v>
+      </c>
+      <c r="DJ37">
+        <v>0</v>
+      </c>
+      <c r="DK37">
+        <v>0</v>
+      </c>
+      <c r="DL37">
+        <v>0</v>
+      </c>
+      <c r="DM37">
+        <v>0</v>
+      </c>
+      <c r="DN37">
+        <v>0</v>
+      </c>
+      <c r="DO37">
+        <v>0</v>
+      </c>
+      <c r="DP37">
+        <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:120" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>150</v>
       </c>
@@ -9941,8 +11048,47 @@
       <c r="DC38">
         <v>0</v>
       </c>
+      <c r="DD38">
+        <v>0</v>
+      </c>
+      <c r="DE38">
+        <v>0</v>
+      </c>
+      <c r="DF38">
+        <v>0</v>
+      </c>
+      <c r="DG38">
+        <v>0</v>
+      </c>
+      <c r="DH38">
+        <v>0</v>
+      </c>
+      <c r="DI38">
+        <v>0</v>
+      </c>
+      <c r="DJ38">
+        <v>0</v>
+      </c>
+      <c r="DK38">
+        <v>0</v>
+      </c>
+      <c r="DL38">
+        <v>0</v>
+      </c>
+      <c r="DM38">
+        <v>0</v>
+      </c>
+      <c r="DN38">
+        <v>0</v>
+      </c>
+      <c r="DO38">
+        <v>0</v>
+      </c>
+      <c r="DP38">
+        <v>0</v>
+      </c>
     </row>
-    <row r="39" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:120" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>151</v>
       </c>
@@ -10264,8 +11410,47 @@
       <c r="DC39">
         <v>0</v>
       </c>
+      <c r="DD39">
+        <v>0</v>
+      </c>
+      <c r="DE39">
+        <v>0</v>
+      </c>
+      <c r="DF39">
+        <v>0</v>
+      </c>
+      <c r="DG39">
+        <v>0</v>
+      </c>
+      <c r="DH39">
+        <v>0</v>
+      </c>
+      <c r="DI39">
+        <v>0</v>
+      </c>
+      <c r="DJ39">
+        <v>0</v>
+      </c>
+      <c r="DK39">
+        <v>0</v>
+      </c>
+      <c r="DL39">
+        <v>0</v>
+      </c>
+      <c r="DM39">
+        <v>0</v>
+      </c>
+      <c r="DN39">
+        <v>0</v>
+      </c>
+      <c r="DO39">
+        <v>0</v>
+      </c>
+      <c r="DP39">
+        <v>0</v>
+      </c>
     </row>
-    <row r="40" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:120" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>152</v>
       </c>
@@ -10585,6 +11770,45 @@
         <v>1</v>
       </c>
       <c r="DC40">
+        <v>0</v>
+      </c>
+      <c r="DD40">
+        <v>0</v>
+      </c>
+      <c r="DE40">
+        <v>0</v>
+      </c>
+      <c r="DF40">
+        <v>0</v>
+      </c>
+      <c r="DG40">
+        <v>0</v>
+      </c>
+      <c r="DH40">
+        <v>0</v>
+      </c>
+      <c r="DI40">
+        <v>0</v>
+      </c>
+      <c r="DJ40">
+        <v>0</v>
+      </c>
+      <c r="DK40">
+        <v>0</v>
+      </c>
+      <c r="DL40">
+        <v>0</v>
+      </c>
+      <c r="DM40">
+        <v>0</v>
+      </c>
+      <c r="DN40">
+        <v>0</v>
+      </c>
+      <c r="DO40">
+        <v>0</v>
+      </c>
+      <c r="DP40">
         <v>0</v>
       </c>
     </row>

--- a/01. HUB/volumen & xenofobia/tasa xenobia/tasa xenofobia regiones/colombia_regiones_categories_.xlsx
+++ b/01. HUB/volumen & xenofobia/tasa xenobia/tasa xenofobia regiones/colombia_regiones_categories_.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Documents\BX-HUB-Indicadores\01. HUB\volumen &amp; xenofobia\tasa xenobia\tasa xenofobia regiones\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45F9C69C-E889-47A6-8B65-B1793FB2C5D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29B9D7D5-4E07-466D-9FF0-2EF91391B96A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="179">
   <si>
     <t>Chart Data Export</t>
   </si>
@@ -531,6 +531,45 @@
   </si>
   <si>
     <t>2024-12-30 05:00:00.0</t>
+  </si>
+  <si>
+    <t>2025-01-06 05:00:00.0</t>
+  </si>
+  <si>
+    <t>2025-01-13 05:00:00.0</t>
+  </si>
+  <si>
+    <t>2025-01-20 05:00:00.0</t>
+  </si>
+  <si>
+    <t>2025-01-27 05:00:00.0</t>
+  </si>
+  <si>
+    <t>2025-02-03 05:00:00.0</t>
+  </si>
+  <si>
+    <t>2025-02-10 05:00:00.0</t>
+  </si>
+  <si>
+    <t>2025-02-17 05:00:00.0</t>
+  </si>
+  <si>
+    <t>2025-02-24 05:00:00.0</t>
+  </si>
+  <si>
+    <t>2025-03-03 05:00:00.0</t>
+  </si>
+  <si>
+    <t>2025-03-10 05:00:00.0</t>
+  </si>
+  <si>
+    <t>2025-03-17 05:00:00.0</t>
+  </si>
+  <si>
+    <t>2025-03-24 05:00:00.0</t>
+  </si>
+  <si>
+    <t>2025-03-31 05:00:00.0</t>
   </si>
 </sst>
 </file>
@@ -872,15 +911,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:DP40"/>
+  <dimension ref="A1:ED40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:120" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:134" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -888,7 +927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:120" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:134" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -896,7 +935,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:120" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:134" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -904,7 +943,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:120" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:134" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -912,7 +951,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:120" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:134" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -920,7 +959,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:120" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:134" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -928,7 +967,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:120" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:134" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -936,7 +975,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:120" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:134" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -944,7 +983,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:120" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:134" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -952,7 +991,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:120" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:134" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>3</v>
       </c>
@@ -1313,8 +1352,50 @@
       <c r="DP11" t="s">
         <v>165</v>
       </c>
+      <c r="DQ11" t="s">
+        <v>165</v>
+      </c>
+      <c r="DR11" t="s">
+        <v>166</v>
+      </c>
+      <c r="DS11" t="s">
+        <v>167</v>
+      </c>
+      <c r="DT11" t="s">
+        <v>168</v>
+      </c>
+      <c r="DU11" t="s">
+        <v>169</v>
+      </c>
+      <c r="DV11" t="s">
+        <v>170</v>
+      </c>
+      <c r="DW11" t="s">
+        <v>171</v>
+      </c>
+      <c r="DX11" t="s">
+        <v>172</v>
+      </c>
+      <c r="DY11" t="s">
+        <v>173</v>
+      </c>
+      <c r="DZ11" t="s">
+        <v>174</v>
+      </c>
+      <c r="EA11" t="s">
+        <v>175</v>
+      </c>
+      <c r="EB11" t="s">
+        <v>176</v>
+      </c>
+      <c r="EC11" t="s">
+        <v>177</v>
+      </c>
+      <c r="ED11" t="s">
+        <v>178</v>
+      </c>
     </row>
-    <row r="12" spans="1:120" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:134" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>124</v>
       </c>
@@ -1675,8 +1756,50 @@
       <c r="DP12">
         <v>104</v>
       </c>
+      <c r="DQ12">
+        <v>347</v>
+      </c>
+      <c r="DR12">
+        <v>1183</v>
+      </c>
+      <c r="DS12">
+        <v>462</v>
+      </c>
+      <c r="DT12">
+        <v>886</v>
+      </c>
+      <c r="DU12">
+        <v>1084</v>
+      </c>
+      <c r="DV12">
+        <v>443</v>
+      </c>
+      <c r="DW12">
+        <v>434</v>
+      </c>
+      <c r="DX12">
+        <v>328</v>
+      </c>
+      <c r="DY12">
+        <v>483</v>
+      </c>
+      <c r="DZ12">
+        <v>366</v>
+      </c>
+      <c r="EA12">
+        <v>310</v>
+      </c>
+      <c r="EB12">
+        <v>554</v>
+      </c>
+      <c r="EC12">
+        <v>466</v>
+      </c>
+      <c r="ED12">
+        <v>65</v>
+      </c>
     </row>
-    <row r="13" spans="1:120" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:134" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>125</v>
       </c>
@@ -2037,8 +2160,50 @@
       <c r="DP13">
         <v>33</v>
       </c>
+      <c r="DQ13">
+        <v>75</v>
+      </c>
+      <c r="DR13">
+        <v>310</v>
+      </c>
+      <c r="DS13">
+        <v>144</v>
+      </c>
+      <c r="DT13">
+        <v>220</v>
+      </c>
+      <c r="DU13">
+        <v>234</v>
+      </c>
+      <c r="DV13">
+        <v>84</v>
+      </c>
+      <c r="DW13">
+        <v>111</v>
+      </c>
+      <c r="DX13">
+        <v>54</v>
+      </c>
+      <c r="DY13">
+        <v>96</v>
+      </c>
+      <c r="DZ13">
+        <v>77</v>
+      </c>
+      <c r="EA13">
+        <v>63</v>
+      </c>
+      <c r="EB13">
+        <v>124</v>
+      </c>
+      <c r="EC13">
+        <v>85</v>
+      </c>
+      <c r="ED13">
+        <v>9</v>
+      </c>
     </row>
-    <row r="14" spans="1:120" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:134" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>126</v>
       </c>
@@ -2399,8 +2564,50 @@
       <c r="DP14">
         <v>22</v>
       </c>
+      <c r="DQ14">
+        <v>38</v>
+      </c>
+      <c r="DR14">
+        <v>137</v>
+      </c>
+      <c r="DS14">
+        <v>111</v>
+      </c>
+      <c r="DT14">
+        <v>146</v>
+      </c>
+      <c r="DU14">
+        <v>171</v>
+      </c>
+      <c r="DV14">
+        <v>107</v>
+      </c>
+      <c r="DW14">
+        <v>56</v>
+      </c>
+      <c r="DX14">
+        <v>25</v>
+      </c>
+      <c r="DY14">
+        <v>95</v>
+      </c>
+      <c r="DZ14">
+        <v>185</v>
+      </c>
+      <c r="EA14">
+        <v>55</v>
+      </c>
+      <c r="EB14">
+        <v>50</v>
+      </c>
+      <c r="EC14">
+        <v>43</v>
+      </c>
+      <c r="ED14">
+        <v>21</v>
+      </c>
     </row>
-    <row r="15" spans="1:120" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:134" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>127</v>
       </c>
@@ -2761,8 +2968,50 @@
       <c r="DP15">
         <v>18</v>
       </c>
+      <c r="DQ15">
+        <v>48</v>
+      </c>
+      <c r="DR15">
+        <v>141</v>
+      </c>
+      <c r="DS15">
+        <v>60</v>
+      </c>
+      <c r="DT15">
+        <v>114</v>
+      </c>
+      <c r="DU15">
+        <v>137</v>
+      </c>
+      <c r="DV15">
+        <v>69</v>
+      </c>
+      <c r="DW15">
+        <v>41</v>
+      </c>
+      <c r="DX15">
+        <v>40</v>
+      </c>
+      <c r="DY15">
+        <v>58</v>
+      </c>
+      <c r="DZ15">
+        <v>77</v>
+      </c>
+      <c r="EA15">
+        <v>47</v>
+      </c>
+      <c r="EB15">
+        <v>65</v>
+      </c>
+      <c r="EC15">
+        <v>48</v>
+      </c>
+      <c r="ED15">
+        <v>7</v>
+      </c>
     </row>
-    <row r="16" spans="1:120" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:134" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>128</v>
       </c>
@@ -3123,8 +3372,50 @@
       <c r="DP16">
         <v>5</v>
       </c>
+      <c r="DQ16">
+        <v>12</v>
+      </c>
+      <c r="DR16">
+        <v>48</v>
+      </c>
+      <c r="DS16">
+        <v>40</v>
+      </c>
+      <c r="DT16">
+        <v>53</v>
+      </c>
+      <c r="DU16">
+        <v>57</v>
+      </c>
+      <c r="DV16">
+        <v>31</v>
+      </c>
+      <c r="DW16">
+        <v>22</v>
+      </c>
+      <c r="DX16">
+        <v>16</v>
+      </c>
+      <c r="DY16">
+        <v>33</v>
+      </c>
+      <c r="DZ16">
+        <v>31</v>
+      </c>
+      <c r="EA16">
+        <v>14</v>
+      </c>
+      <c r="EB16">
+        <v>29</v>
+      </c>
+      <c r="EC16">
+        <v>15</v>
+      </c>
+      <c r="ED16">
+        <v>7</v>
+      </c>
     </row>
-    <row r="17" spans="1:120" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:134" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>129</v>
       </c>
@@ -3485,8 +3776,50 @@
       <c r="DP17">
         <v>2</v>
       </c>
+      <c r="DQ17">
+        <v>9</v>
+      </c>
+      <c r="DR17">
+        <v>22</v>
+      </c>
+      <c r="DS17">
+        <v>9</v>
+      </c>
+      <c r="DT17">
+        <v>18</v>
+      </c>
+      <c r="DU17">
+        <v>30</v>
+      </c>
+      <c r="DV17">
+        <v>22</v>
+      </c>
+      <c r="DW17">
+        <v>21</v>
+      </c>
+      <c r="DX17">
+        <v>14</v>
+      </c>
+      <c r="DY17">
+        <v>29</v>
+      </c>
+      <c r="DZ17">
+        <v>22</v>
+      </c>
+      <c r="EA17">
+        <v>20</v>
+      </c>
+      <c r="EB17">
+        <v>60</v>
+      </c>
+      <c r="EC17">
+        <v>33</v>
+      </c>
+      <c r="ED17">
+        <v>7</v>
+      </c>
     </row>
-    <row r="18" spans="1:120" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:134" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>130</v>
       </c>
@@ -3847,8 +4180,50 @@
       <c r="DP18">
         <v>1</v>
       </c>
+      <c r="DQ18">
+        <v>4</v>
+      </c>
+      <c r="DR18">
+        <v>11</v>
+      </c>
+      <c r="DS18">
+        <v>11</v>
+      </c>
+      <c r="DT18">
+        <v>11</v>
+      </c>
+      <c r="DU18">
+        <v>17</v>
+      </c>
+      <c r="DV18">
+        <v>4</v>
+      </c>
+      <c r="DW18">
+        <v>3</v>
+      </c>
+      <c r="DX18">
+        <v>4</v>
+      </c>
+      <c r="DY18">
+        <v>3</v>
+      </c>
+      <c r="DZ18">
+        <v>3</v>
+      </c>
+      <c r="EA18">
+        <v>3</v>
+      </c>
+      <c r="EB18">
+        <v>9</v>
+      </c>
+      <c r="EC18">
+        <v>6</v>
+      </c>
+      <c r="ED18">
+        <v>0</v>
+      </c>
     </row>
-    <row r="19" spans="1:120" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:134" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>131</v>
       </c>
@@ -4209,8 +4584,50 @@
       <c r="DP19">
         <v>2</v>
       </c>
+      <c r="DQ19">
+        <v>1</v>
+      </c>
+      <c r="DR19">
+        <v>3</v>
+      </c>
+      <c r="DS19">
+        <v>2</v>
+      </c>
+      <c r="DT19">
+        <v>8</v>
+      </c>
+      <c r="DU19">
+        <v>15</v>
+      </c>
+      <c r="DV19">
+        <v>4</v>
+      </c>
+      <c r="DW19">
+        <v>2</v>
+      </c>
+      <c r="DX19">
+        <v>0</v>
+      </c>
+      <c r="DY19">
+        <v>2</v>
+      </c>
+      <c r="DZ19">
+        <v>3</v>
+      </c>
+      <c r="EA19">
+        <v>1</v>
+      </c>
+      <c r="EB19">
+        <v>7</v>
+      </c>
+      <c r="EC19">
+        <v>5</v>
+      </c>
+      <c r="ED19">
+        <v>1</v>
+      </c>
     </row>
-    <row r="20" spans="1:120" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:134" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>132</v>
       </c>
@@ -4571,8 +4988,50 @@
       <c r="DP20">
         <v>0</v>
       </c>
+      <c r="DQ20">
+        <v>0</v>
+      </c>
+      <c r="DR20">
+        <v>4</v>
+      </c>
+      <c r="DS20">
+        <v>6</v>
+      </c>
+      <c r="DT20">
+        <v>10</v>
+      </c>
+      <c r="DU20">
+        <v>2</v>
+      </c>
+      <c r="DV20">
+        <v>3</v>
+      </c>
+      <c r="DW20">
+        <v>1</v>
+      </c>
+      <c r="DX20">
+        <v>1</v>
+      </c>
+      <c r="DY20">
+        <v>2</v>
+      </c>
+      <c r="DZ20">
+        <v>2</v>
+      </c>
+      <c r="EA20">
+        <v>2</v>
+      </c>
+      <c r="EB20">
+        <v>1</v>
+      </c>
+      <c r="EC20">
+        <v>5</v>
+      </c>
+      <c r="ED20">
+        <v>0</v>
+      </c>
     </row>
-    <row r="21" spans="1:120" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:134" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>133</v>
       </c>
@@ -4933,8 +5392,50 @@
       <c r="DP21">
         <v>2</v>
       </c>
+      <c r="DQ21">
+        <v>4</v>
+      </c>
+      <c r="DR21">
+        <v>12</v>
+      </c>
+      <c r="DS21">
+        <v>5</v>
+      </c>
+      <c r="DT21">
+        <v>10</v>
+      </c>
+      <c r="DU21">
+        <v>11</v>
+      </c>
+      <c r="DV21">
+        <v>4</v>
+      </c>
+      <c r="DW21">
+        <v>4</v>
+      </c>
+      <c r="DX21">
+        <v>2</v>
+      </c>
+      <c r="DY21">
+        <v>4</v>
+      </c>
+      <c r="DZ21">
+        <v>10</v>
+      </c>
+      <c r="EA21">
+        <v>2</v>
+      </c>
+      <c r="EB21">
+        <v>3</v>
+      </c>
+      <c r="EC21">
+        <v>13</v>
+      </c>
+      <c r="ED21">
+        <v>1</v>
+      </c>
     </row>
-    <row r="22" spans="1:120" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:134" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>134</v>
       </c>
@@ -5295,8 +5796,50 @@
       <c r="DP22">
         <v>1</v>
       </c>
+      <c r="DQ22">
+        <v>1</v>
+      </c>
+      <c r="DR22">
+        <v>11</v>
+      </c>
+      <c r="DS22">
+        <v>2</v>
+      </c>
+      <c r="DT22">
+        <v>10</v>
+      </c>
+      <c r="DU22">
+        <v>8</v>
+      </c>
+      <c r="DV22">
+        <v>2</v>
+      </c>
+      <c r="DW22">
+        <v>0</v>
+      </c>
+      <c r="DX22">
+        <v>0</v>
+      </c>
+      <c r="DY22">
+        <v>3</v>
+      </c>
+      <c r="DZ22">
+        <v>5</v>
+      </c>
+      <c r="EA22">
+        <v>5</v>
+      </c>
+      <c r="EB22">
+        <v>12</v>
+      </c>
+      <c r="EC22">
+        <v>3</v>
+      </c>
+      <c r="ED22">
+        <v>1</v>
+      </c>
     </row>
-    <row r="23" spans="1:120" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:134" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>135</v>
       </c>
@@ -5657,8 +6200,50 @@
       <c r="DP23">
         <v>0</v>
       </c>
+      <c r="DQ23">
+        <v>6</v>
+      </c>
+      <c r="DR23">
+        <v>12</v>
+      </c>
+      <c r="DS23">
+        <v>6</v>
+      </c>
+      <c r="DT23">
+        <v>11</v>
+      </c>
+      <c r="DU23">
+        <v>27</v>
+      </c>
+      <c r="DV23">
+        <v>7</v>
+      </c>
+      <c r="DW23">
+        <v>3</v>
+      </c>
+      <c r="DX23">
+        <v>4</v>
+      </c>
+      <c r="DY23">
+        <v>4</v>
+      </c>
+      <c r="DZ23">
+        <v>5</v>
+      </c>
+      <c r="EA23">
+        <v>4</v>
+      </c>
+      <c r="EB23">
+        <v>5</v>
+      </c>
+      <c r="EC23">
+        <v>2</v>
+      </c>
+      <c r="ED23">
+        <v>0</v>
+      </c>
     </row>
-    <row r="24" spans="1:120" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:134" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>136</v>
       </c>
@@ -6019,8 +6604,50 @@
       <c r="DP24">
         <v>2</v>
       </c>
+      <c r="DQ24">
+        <v>1</v>
+      </c>
+      <c r="DR24">
+        <v>16</v>
+      </c>
+      <c r="DS24">
+        <v>6</v>
+      </c>
+      <c r="DT24">
+        <v>16</v>
+      </c>
+      <c r="DU24">
+        <v>11</v>
+      </c>
+      <c r="DV24">
+        <v>4</v>
+      </c>
+      <c r="DW24">
+        <v>5</v>
+      </c>
+      <c r="DX24">
+        <v>15</v>
+      </c>
+      <c r="DY24">
+        <v>5</v>
+      </c>
+      <c r="DZ24">
+        <v>1</v>
+      </c>
+      <c r="EA24">
+        <v>2</v>
+      </c>
+      <c r="EB24">
+        <v>3</v>
+      </c>
+      <c r="EC24">
+        <v>3</v>
+      </c>
+      <c r="ED24">
+        <v>0</v>
+      </c>
     </row>
-    <row r="25" spans="1:120" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:134" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>137</v>
       </c>
@@ -6381,8 +7008,50 @@
       <c r="DP25">
         <v>4</v>
       </c>
+      <c r="DQ25">
+        <v>4</v>
+      </c>
+      <c r="DR25">
+        <v>28</v>
+      </c>
+      <c r="DS25">
+        <v>9</v>
+      </c>
+      <c r="DT25">
+        <v>18</v>
+      </c>
+      <c r="DU25">
+        <v>9</v>
+      </c>
+      <c r="DV25">
+        <v>3</v>
+      </c>
+      <c r="DW25">
+        <v>13</v>
+      </c>
+      <c r="DX25">
+        <v>6</v>
+      </c>
+      <c r="DY25">
+        <v>10</v>
+      </c>
+      <c r="DZ25">
+        <v>8</v>
+      </c>
+      <c r="EA25">
+        <v>3</v>
+      </c>
+      <c r="EB25">
+        <v>9</v>
+      </c>
+      <c r="EC25">
+        <v>15</v>
+      </c>
+      <c r="ED25">
+        <v>2</v>
+      </c>
     </row>
-    <row r="26" spans="1:120" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:134" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>138</v>
       </c>
@@ -6743,8 +7412,50 @@
       <c r="DP26">
         <v>0</v>
       </c>
+      <c r="DQ26">
+        <v>5</v>
+      </c>
+      <c r="DR26">
+        <v>19</v>
+      </c>
+      <c r="DS26">
+        <v>12</v>
+      </c>
+      <c r="DT26">
+        <v>17</v>
+      </c>
+      <c r="DU26">
+        <v>16</v>
+      </c>
+      <c r="DV26">
+        <v>4</v>
+      </c>
+      <c r="DW26">
+        <v>3</v>
+      </c>
+      <c r="DX26">
+        <v>6</v>
+      </c>
+      <c r="DY26">
+        <v>9</v>
+      </c>
+      <c r="DZ26">
+        <v>6</v>
+      </c>
+      <c r="EA26">
+        <v>7</v>
+      </c>
+      <c r="EB26">
+        <v>10</v>
+      </c>
+      <c r="EC26">
+        <v>6</v>
+      </c>
+      <c r="ED26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="27" spans="1:120" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:134" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>139</v>
       </c>
@@ -7105,8 +7816,50 @@
       <c r="DP27">
         <v>0</v>
       </c>
+      <c r="DQ27">
+        <v>5</v>
+      </c>
+      <c r="DR27">
+        <v>9</v>
+      </c>
+      <c r="DS27">
+        <v>6</v>
+      </c>
+      <c r="DT27">
+        <v>12</v>
+      </c>
+      <c r="DU27">
+        <v>8</v>
+      </c>
+      <c r="DV27">
+        <v>8</v>
+      </c>
+      <c r="DW27">
+        <v>4</v>
+      </c>
+      <c r="DX27">
+        <v>0</v>
+      </c>
+      <c r="DY27">
+        <v>0</v>
+      </c>
+      <c r="DZ27">
+        <v>4</v>
+      </c>
+      <c r="EA27">
+        <v>3</v>
+      </c>
+      <c r="EB27">
+        <v>15</v>
+      </c>
+      <c r="EC27">
+        <v>11</v>
+      </c>
+      <c r="ED27">
+        <v>1</v>
+      </c>
     </row>
-    <row r="28" spans="1:120" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:134" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>140</v>
       </c>
@@ -7467,8 +8220,50 @@
       <c r="DP28">
         <v>0</v>
       </c>
+      <c r="DQ28">
+        <v>0</v>
+      </c>
+      <c r="DR28">
+        <v>10</v>
+      </c>
+      <c r="DS28">
+        <v>3</v>
+      </c>
+      <c r="DT28">
+        <v>7</v>
+      </c>
+      <c r="DU28">
+        <v>9</v>
+      </c>
+      <c r="DV28">
+        <v>3</v>
+      </c>
+      <c r="DW28">
+        <v>1</v>
+      </c>
+      <c r="DX28">
+        <v>0</v>
+      </c>
+      <c r="DY28">
+        <v>2</v>
+      </c>
+      <c r="DZ28">
+        <v>0</v>
+      </c>
+      <c r="EA28">
+        <v>1</v>
+      </c>
+      <c r="EB28">
+        <v>4</v>
+      </c>
+      <c r="EC28">
+        <v>1</v>
+      </c>
+      <c r="ED28">
+        <v>0</v>
+      </c>
     </row>
-    <row r="29" spans="1:120" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:134" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>141</v>
       </c>
@@ -7829,8 +8624,50 @@
       <c r="DP29">
         <v>0</v>
       </c>
+      <c r="DQ29">
+        <v>0</v>
+      </c>
+      <c r="DR29">
+        <v>1</v>
+      </c>
+      <c r="DS29">
+        <v>4</v>
+      </c>
+      <c r="DT29">
+        <v>5</v>
+      </c>
+      <c r="DU29">
+        <v>1</v>
+      </c>
+      <c r="DV29">
+        <v>1</v>
+      </c>
+      <c r="DW29">
+        <v>1</v>
+      </c>
+      <c r="DX29">
+        <v>1</v>
+      </c>
+      <c r="DY29">
+        <v>1</v>
+      </c>
+      <c r="DZ29">
+        <v>0</v>
+      </c>
+      <c r="EA29">
+        <v>0</v>
+      </c>
+      <c r="EB29">
+        <v>2</v>
+      </c>
+      <c r="EC29">
+        <v>3</v>
+      </c>
+      <c r="ED29">
+        <v>0</v>
+      </c>
     </row>
-    <row r="30" spans="1:120" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:134" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>142</v>
       </c>
@@ -8191,8 +9028,50 @@
       <c r="DP30">
         <v>0</v>
       </c>
+      <c r="DQ30">
+        <v>1</v>
+      </c>
+      <c r="DR30">
+        <v>10</v>
+      </c>
+      <c r="DS30">
+        <v>0</v>
+      </c>
+      <c r="DT30">
+        <v>4</v>
+      </c>
+      <c r="DU30">
+        <v>10</v>
+      </c>
+      <c r="DV30">
+        <v>1</v>
+      </c>
+      <c r="DW30">
+        <v>1</v>
+      </c>
+      <c r="DX30">
+        <v>4</v>
+      </c>
+      <c r="DY30">
+        <v>3</v>
+      </c>
+      <c r="DZ30">
+        <v>2</v>
+      </c>
+      <c r="EA30">
+        <v>2</v>
+      </c>
+      <c r="EB30">
+        <v>1</v>
+      </c>
+      <c r="EC30">
+        <v>1</v>
+      </c>
+      <c r="ED30">
+        <v>0</v>
+      </c>
     </row>
-    <row r="31" spans="1:120" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:134" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>143</v>
       </c>
@@ -8553,8 +9432,50 @@
       <c r="DP31">
         <v>0</v>
       </c>
+      <c r="DQ31">
+        <v>3</v>
+      </c>
+      <c r="DR31">
+        <v>6</v>
+      </c>
+      <c r="DS31">
+        <v>3</v>
+      </c>
+      <c r="DT31">
+        <v>7</v>
+      </c>
+      <c r="DU31">
+        <v>4</v>
+      </c>
+      <c r="DV31">
+        <v>2</v>
+      </c>
+      <c r="DW31">
+        <v>4</v>
+      </c>
+      <c r="DX31">
+        <v>1</v>
+      </c>
+      <c r="DY31">
+        <v>3</v>
+      </c>
+      <c r="DZ31">
+        <v>2</v>
+      </c>
+      <c r="EA31">
+        <v>4</v>
+      </c>
+      <c r="EB31">
+        <v>8</v>
+      </c>
+      <c r="EC31">
+        <v>5</v>
+      </c>
+      <c r="ED31">
+        <v>0</v>
+      </c>
     </row>
-    <row r="32" spans="1:120" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:134" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>144</v>
       </c>
@@ -8915,8 +9836,50 @@
       <c r="DP32">
         <v>0</v>
       </c>
+      <c r="DQ32">
+        <v>1</v>
+      </c>
+      <c r="DR32">
+        <v>1</v>
+      </c>
+      <c r="DS32">
+        <v>5</v>
+      </c>
+      <c r="DT32">
+        <v>7</v>
+      </c>
+      <c r="DU32">
+        <v>5</v>
+      </c>
+      <c r="DV32">
+        <v>5</v>
+      </c>
+      <c r="DW32">
+        <v>5</v>
+      </c>
+      <c r="DX32">
+        <v>0</v>
+      </c>
+      <c r="DY32">
+        <v>6</v>
+      </c>
+      <c r="DZ32">
+        <v>4</v>
+      </c>
+      <c r="EA32">
+        <v>0</v>
+      </c>
+      <c r="EB32">
+        <v>1</v>
+      </c>
+      <c r="EC32">
+        <v>4</v>
+      </c>
+      <c r="ED32">
+        <v>0</v>
+      </c>
     </row>
-    <row r="33" spans="1:120" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:134" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>145</v>
       </c>
@@ -9277,8 +10240,50 @@
       <c r="DP33">
         <v>1</v>
       </c>
+      <c r="DQ33">
+        <v>1</v>
+      </c>
+      <c r="DR33">
+        <v>5</v>
+      </c>
+      <c r="DS33">
+        <v>3</v>
+      </c>
+      <c r="DT33">
+        <v>2</v>
+      </c>
+      <c r="DU33">
+        <v>6</v>
+      </c>
+      <c r="DV33">
+        <v>1</v>
+      </c>
+      <c r="DW33">
+        <v>2</v>
+      </c>
+      <c r="DX33">
+        <v>4</v>
+      </c>
+      <c r="DY33">
+        <v>0</v>
+      </c>
+      <c r="DZ33">
+        <v>4</v>
+      </c>
+      <c r="EA33">
+        <v>2</v>
+      </c>
+      <c r="EB33">
+        <v>2</v>
+      </c>
+      <c r="EC33">
+        <v>0</v>
+      </c>
+      <c r="ED33">
+        <v>1</v>
+      </c>
     </row>
-    <row r="34" spans="1:120" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:134" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>146</v>
       </c>
@@ -9639,8 +10644,50 @@
       <c r="DP34">
         <v>0</v>
       </c>
+      <c r="DQ34">
+        <v>0</v>
+      </c>
+      <c r="DR34">
+        <v>5</v>
+      </c>
+      <c r="DS34">
+        <v>5</v>
+      </c>
+      <c r="DT34">
+        <v>5</v>
+      </c>
+      <c r="DU34">
+        <v>5</v>
+      </c>
+      <c r="DV34">
+        <v>7</v>
+      </c>
+      <c r="DW34">
+        <v>1</v>
+      </c>
+      <c r="DX34">
+        <v>1</v>
+      </c>
+      <c r="DY34">
+        <v>1</v>
+      </c>
+      <c r="DZ34">
+        <v>0</v>
+      </c>
+      <c r="EA34">
+        <v>1</v>
+      </c>
+      <c r="EB34">
+        <v>4</v>
+      </c>
+      <c r="EC34">
+        <v>4</v>
+      </c>
+      <c r="ED34">
+        <v>0</v>
+      </c>
     </row>
-    <row r="35" spans="1:120" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:134" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>147</v>
       </c>
@@ -10001,8 +11048,50 @@
       <c r="DP35">
         <v>0</v>
       </c>
+      <c r="DQ35">
+        <v>1</v>
+      </c>
+      <c r="DR35">
+        <v>0</v>
+      </c>
+      <c r="DS35">
+        <v>1</v>
+      </c>
+      <c r="DT35">
+        <v>0</v>
+      </c>
+      <c r="DU35">
+        <v>0</v>
+      </c>
+      <c r="DV35">
+        <v>1</v>
+      </c>
+      <c r="DW35">
+        <v>0</v>
+      </c>
+      <c r="DX35">
+        <v>1</v>
+      </c>
+      <c r="DY35">
+        <v>1</v>
+      </c>
+      <c r="DZ35">
+        <v>0</v>
+      </c>
+      <c r="EA35">
+        <v>2</v>
+      </c>
+      <c r="EB35">
+        <v>1</v>
+      </c>
+      <c r="EC35">
+        <v>0</v>
+      </c>
+      <c r="ED35">
+        <v>0</v>
+      </c>
     </row>
-    <row r="36" spans="1:120" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:134" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>148</v>
       </c>
@@ -10363,8 +11452,50 @@
       <c r="DP36">
         <v>0</v>
       </c>
+      <c r="DQ36">
+        <v>1</v>
+      </c>
+      <c r="DR36">
+        <v>1</v>
+      </c>
+      <c r="DS36">
+        <v>0</v>
+      </c>
+      <c r="DT36">
+        <v>0</v>
+      </c>
+      <c r="DU36">
+        <v>2</v>
+      </c>
+      <c r="DV36">
+        <v>1</v>
+      </c>
+      <c r="DW36">
+        <v>0</v>
+      </c>
+      <c r="DX36">
+        <v>0</v>
+      </c>
+      <c r="DY36">
+        <v>0</v>
+      </c>
+      <c r="DZ36">
+        <v>0</v>
+      </c>
+      <c r="EA36">
+        <v>0</v>
+      </c>
+      <c r="EB36">
+        <v>1</v>
+      </c>
+      <c r="EC36">
+        <v>1</v>
+      </c>
+      <c r="ED36">
+        <v>0</v>
+      </c>
     </row>
-    <row r="37" spans="1:120" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:134" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>149</v>
       </c>
@@ -10725,8 +11856,50 @@
       <c r="DP37">
         <v>0</v>
       </c>
+      <c r="DQ37">
+        <v>3</v>
+      </c>
+      <c r="DR37">
+        <v>4</v>
+      </c>
+      <c r="DS37">
+        <v>1</v>
+      </c>
+      <c r="DT37">
+        <v>2</v>
+      </c>
+      <c r="DU37">
+        <v>2</v>
+      </c>
+      <c r="DV37">
+        <v>1</v>
+      </c>
+      <c r="DW37">
+        <v>0</v>
+      </c>
+      <c r="DX37">
+        <v>0</v>
+      </c>
+      <c r="DY37">
+        <v>0</v>
+      </c>
+      <c r="DZ37">
+        <v>0</v>
+      </c>
+      <c r="EA37">
+        <v>1</v>
+      </c>
+      <c r="EB37">
+        <v>0</v>
+      </c>
+      <c r="EC37">
+        <v>0</v>
+      </c>
+      <c r="ED37">
+        <v>1</v>
+      </c>
     </row>
-    <row r="38" spans="1:120" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:134" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>150</v>
       </c>
@@ -11087,8 +12260,50 @@
       <c r="DP38">
         <v>0</v>
       </c>
+      <c r="DQ38">
+        <v>0</v>
+      </c>
+      <c r="DR38">
+        <v>1</v>
+      </c>
+      <c r="DS38">
+        <v>0</v>
+      </c>
+      <c r="DT38">
+        <v>2</v>
+      </c>
+      <c r="DU38">
+        <v>0</v>
+      </c>
+      <c r="DV38">
+        <v>2</v>
+      </c>
+      <c r="DW38">
+        <v>2</v>
+      </c>
+      <c r="DX38">
+        <v>0</v>
+      </c>
+      <c r="DY38">
+        <v>0</v>
+      </c>
+      <c r="DZ38">
+        <v>2</v>
+      </c>
+      <c r="EA38">
+        <v>0</v>
+      </c>
+      <c r="EB38">
+        <v>0</v>
+      </c>
+      <c r="EC38">
+        <v>0</v>
+      </c>
+      <c r="ED38">
+        <v>0</v>
+      </c>
     </row>
-    <row r="39" spans="1:120" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:134" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>151</v>
       </c>
@@ -11449,8 +12664,50 @@
       <c r="DP39">
         <v>0</v>
       </c>
+      <c r="DQ39">
+        <v>0</v>
+      </c>
+      <c r="DR39">
+        <v>0</v>
+      </c>
+      <c r="DS39">
+        <v>0</v>
+      </c>
+      <c r="DT39">
+        <v>2</v>
+      </c>
+      <c r="DU39">
+        <v>1</v>
+      </c>
+      <c r="DV39">
+        <v>0</v>
+      </c>
+      <c r="DW39">
+        <v>0</v>
+      </c>
+      <c r="DX39">
+        <v>0</v>
+      </c>
+      <c r="DY39">
+        <v>0</v>
+      </c>
+      <c r="DZ39">
+        <v>0</v>
+      </c>
+      <c r="EA39">
+        <v>0</v>
+      </c>
+      <c r="EB39">
+        <v>0</v>
+      </c>
+      <c r="EC39">
+        <v>0</v>
+      </c>
+      <c r="ED39">
+        <v>0</v>
+      </c>
     </row>
-    <row r="40" spans="1:120" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:134" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>152</v>
       </c>
@@ -11809,6 +13066,48 @@
         <v>0</v>
       </c>
       <c r="DP40">
+        <v>0</v>
+      </c>
+      <c r="DQ40">
+        <v>0</v>
+      </c>
+      <c r="DR40">
+        <v>0</v>
+      </c>
+      <c r="DS40">
+        <v>0</v>
+      </c>
+      <c r="DT40">
+        <v>0</v>
+      </c>
+      <c r="DU40">
+        <v>0</v>
+      </c>
+      <c r="DV40">
+        <v>0</v>
+      </c>
+      <c r="DW40">
+        <v>0</v>
+      </c>
+      <c r="DX40">
+        <v>0</v>
+      </c>
+      <c r="DY40">
+        <v>0</v>
+      </c>
+      <c r="DZ40">
+        <v>0</v>
+      </c>
+      <c r="EA40">
+        <v>0</v>
+      </c>
+      <c r="EB40">
+        <v>0</v>
+      </c>
+      <c r="EC40">
+        <v>0</v>
+      </c>
+      <c r="ED40">
         <v>0</v>
       </c>
     </row>

--- a/01. HUB/volumen & xenofobia/tasa xenobia/tasa xenofobia regiones/colombia_regiones_categories_.xlsx
+++ b/01. HUB/volumen & xenofobia/tasa xenobia/tasa xenofobia regiones/colombia_regiones_categories_.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Documents\BX-HUB-Indicadores\01. HUB\volumen &amp; xenofobia\tasa xenobia\tasa xenofobia regiones\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29B9D7D5-4E07-466D-9FF0-2EF91391B96A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A95259D9-6F6A-4DC5-8EA3-40666B0C6790}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="179">
   <si>
     <t>Chart Data Export</t>
   </si>
@@ -911,15 +911,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:ED40"/>
+  <dimension ref="A1:EC40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" topLeftCell="DD4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="DP4" sqref="DP1:DP1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:133" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -927,7 +927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:133" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -935,7 +935,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:133" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -943,7 +943,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:133" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -951,7 +951,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:133" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -959,7 +959,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:133" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -967,7 +967,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:133" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -975,7 +975,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:133" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -983,7 +983,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:133" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -991,7 +991,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:133" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>3</v>
       </c>
@@ -1353,49 +1353,46 @@
         <v>165</v>
       </c>
       <c r="DQ11" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="DR11" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="DS11" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="DT11" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="DU11" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="DV11" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="DW11" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="DX11" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="DY11" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="DZ11" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="EA11" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="EB11" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="EC11" t="s">
-        <v>177</v>
-      </c>
-      <c r="ED11" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="12" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:133" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>124</v>
       </c>
@@ -1754,52 +1751,49 @@
         <v>411</v>
       </c>
       <c r="DP12">
-        <v>104</v>
+        <v>347</v>
       </c>
       <c r="DQ12">
-        <v>347</v>
+        <v>1183</v>
       </c>
       <c r="DR12">
-        <v>1183</v>
+        <v>462</v>
       </c>
       <c r="DS12">
-        <v>462</v>
+        <v>886</v>
       </c>
       <c r="DT12">
-        <v>886</v>
+        <v>1084</v>
       </c>
       <c r="DU12">
-        <v>1084</v>
+        <v>443</v>
       </c>
       <c r="DV12">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="DW12">
-        <v>434</v>
+        <v>328</v>
       </c>
       <c r="DX12">
-        <v>328</v>
+        <v>483</v>
       </c>
       <c r="DY12">
-        <v>483</v>
+        <v>366</v>
       </c>
       <c r="DZ12">
-        <v>366</v>
+        <v>310</v>
       </c>
       <c r="EA12">
-        <v>310</v>
+        <v>554</v>
       </c>
       <c r="EB12">
-        <v>554</v>
+        <v>466</v>
       </c>
       <c r="EC12">
-        <v>466</v>
-      </c>
-      <c r="ED12">
         <v>65</v>
       </c>
     </row>
-    <row r="13" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:133" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>125</v>
       </c>
@@ -2158,52 +2152,49 @@
         <v>98</v>
       </c>
       <c r="DP13">
-        <v>33</v>
+        <v>75</v>
       </c>
       <c r="DQ13">
-        <v>75</v>
+        <v>310</v>
       </c>
       <c r="DR13">
-        <v>310</v>
+        <v>144</v>
       </c>
       <c r="DS13">
-        <v>144</v>
+        <v>220</v>
       </c>
       <c r="DT13">
-        <v>220</v>
+        <v>234</v>
       </c>
       <c r="DU13">
-        <v>234</v>
+        <v>84</v>
       </c>
       <c r="DV13">
-        <v>84</v>
+        <v>111</v>
       </c>
       <c r="DW13">
-        <v>111</v>
+        <v>54</v>
       </c>
       <c r="DX13">
-        <v>54</v>
+        <v>96</v>
       </c>
       <c r="DY13">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="DZ13">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="EA13">
-        <v>63</v>
+        <v>124</v>
       </c>
       <c r="EB13">
-        <v>124</v>
+        <v>85</v>
       </c>
       <c r="EC13">
-        <v>85</v>
-      </c>
-      <c r="ED13">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:133" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>126</v>
       </c>
@@ -2562,52 +2553,49 @@
         <v>49</v>
       </c>
       <c r="DP14">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="DQ14">
-        <v>38</v>
+        <v>137</v>
       </c>
       <c r="DR14">
-        <v>137</v>
+        <v>111</v>
       </c>
       <c r="DS14">
-        <v>111</v>
+        <v>146</v>
       </c>
       <c r="DT14">
-        <v>146</v>
+        <v>171</v>
       </c>
       <c r="DU14">
-        <v>171</v>
+        <v>107</v>
       </c>
       <c r="DV14">
-        <v>107</v>
+        <v>56</v>
       </c>
       <c r="DW14">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="DX14">
-        <v>25</v>
+        <v>95</v>
       </c>
       <c r="DY14">
-        <v>95</v>
+        <v>185</v>
       </c>
       <c r="DZ14">
-        <v>185</v>
+        <v>55</v>
       </c>
       <c r="EA14">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="EB14">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="EC14">
-        <v>43</v>
-      </c>
-      <c r="ED14">
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:133" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>127</v>
       </c>
@@ -2966,52 +2954,49 @@
         <v>81</v>
       </c>
       <c r="DP15">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="DQ15">
+        <v>141</v>
+      </c>
+      <c r="DR15">
+        <v>60</v>
+      </c>
+      <c r="DS15">
+        <v>114</v>
+      </c>
+      <c r="DT15">
+        <v>137</v>
+      </c>
+      <c r="DU15">
+        <v>69</v>
+      </c>
+      <c r="DV15">
+        <v>41</v>
+      </c>
+      <c r="DW15">
+        <v>40</v>
+      </c>
+      <c r="DX15">
+        <v>58</v>
+      </c>
+      <c r="DY15">
+        <v>77</v>
+      </c>
+      <c r="DZ15">
+        <v>47</v>
+      </c>
+      <c r="EA15">
+        <v>65</v>
+      </c>
+      <c r="EB15">
         <v>48</v>
       </c>
-      <c r="DR15">
-        <v>141</v>
-      </c>
-      <c r="DS15">
-        <v>60</v>
-      </c>
-      <c r="DT15">
-        <v>114</v>
-      </c>
-      <c r="DU15">
-        <v>137</v>
-      </c>
-      <c r="DV15">
-        <v>69</v>
-      </c>
-      <c r="DW15">
-        <v>41</v>
-      </c>
-      <c r="DX15">
-        <v>40</v>
-      </c>
-      <c r="DY15">
-        <v>58</v>
-      </c>
-      <c r="DZ15">
-        <v>77</v>
-      </c>
-      <c r="EA15">
-        <v>47</v>
-      </c>
-      <c r="EB15">
-        <v>65</v>
-      </c>
       <c r="EC15">
-        <v>48</v>
-      </c>
-      <c r="ED15">
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:133" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>128</v>
       </c>
@@ -3370,52 +3355,49 @@
         <v>24</v>
       </c>
       <c r="DP16">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="DQ16">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="DR16">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="DS16">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="DT16">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="DU16">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="DV16">
+        <v>22</v>
+      </c>
+      <c r="DW16">
+        <v>16</v>
+      </c>
+      <c r="DX16">
+        <v>33</v>
+      </c>
+      <c r="DY16">
         <v>31</v>
       </c>
-      <c r="DW16">
-        <v>22</v>
-      </c>
-      <c r="DX16">
-        <v>16</v>
-      </c>
-      <c r="DY16">
-        <v>33</v>
-      </c>
       <c r="DZ16">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="EA16">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="EB16">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="EC16">
-        <v>15</v>
-      </c>
-      <c r="ED16">
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:133" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>129</v>
       </c>
@@ -3774,52 +3756,49 @@
         <v>8</v>
       </c>
       <c r="DP17">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="DQ17">
+        <v>22</v>
+      </c>
+      <c r="DR17">
         <v>9</v>
       </c>
-      <c r="DR17">
+      <c r="DS17">
+        <v>18</v>
+      </c>
+      <c r="DT17">
+        <v>30</v>
+      </c>
+      <c r="DU17">
         <v>22</v>
       </c>
-      <c r="DS17">
-        <v>9</v>
-      </c>
-      <c r="DT17">
-        <v>18</v>
-      </c>
-      <c r="DU17">
-        <v>30</v>
-      </c>
       <c r="DV17">
+        <v>21</v>
+      </c>
+      <c r="DW17">
+        <v>14</v>
+      </c>
+      <c r="DX17">
+        <v>29</v>
+      </c>
+      <c r="DY17">
         <v>22</v>
       </c>
-      <c r="DW17">
-        <v>21</v>
-      </c>
-      <c r="DX17">
-        <v>14</v>
-      </c>
-      <c r="DY17">
-        <v>29</v>
-      </c>
       <c r="DZ17">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="EA17">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="EB17">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="EC17">
-        <v>33</v>
-      </c>
-      <c r="ED17">
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:133" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>130</v>
       </c>
@@ -4178,10 +4157,10 @@
         <v>8</v>
       </c>
       <c r="DP18">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="DQ18">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="DR18">
         <v>11</v>
@@ -4190,19 +4169,19 @@
         <v>11</v>
       </c>
       <c r="DT18">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="DU18">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="DV18">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="DW18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="DX18">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="DY18">
         <v>3</v>
@@ -4211,19 +4190,16 @@
         <v>3</v>
       </c>
       <c r="EA18">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="EB18">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="EC18">
-        <v>6</v>
-      </c>
-      <c r="ED18">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:133" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>131</v>
       </c>
@@ -4582,52 +4558,49 @@
         <v>5</v>
       </c>
       <c r="DP19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="DQ19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="DR19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="DS19">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="DT19">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="DU19">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="DV19">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="DW19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="DX19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="DY19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="DZ19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="EA19">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="EB19">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="EC19">
-        <v>5</v>
-      </c>
-      <c r="ED19">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:133" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>132</v>
       </c>
@@ -4989,28 +4962,28 @@
         <v>0</v>
       </c>
       <c r="DQ20">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="DR20">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="DS20">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="DT20">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="DU20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="DV20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="DW20">
         <v>1</v>
       </c>
       <c r="DX20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="DY20">
         <v>2</v>
@@ -5019,19 +4992,16 @@
         <v>2</v>
       </c>
       <c r="EA20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="EB20">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="EC20">
-        <v>5</v>
-      </c>
-      <c r="ED20">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:133" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>133</v>
       </c>
@@ -5390,52 +5360,49 @@
         <v>1</v>
       </c>
       <c r="DP21">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="DQ21">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="DR21">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="DS21">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="DT21">
+        <v>11</v>
+      </c>
+      <c r="DU21">
+        <v>4</v>
+      </c>
+      <c r="DV21">
+        <v>4</v>
+      </c>
+      <c r="DW21">
+        <v>2</v>
+      </c>
+      <c r="DX21">
+        <v>4</v>
+      </c>
+      <c r="DY21">
         <v>10</v>
       </c>
-      <c r="DU21">
-        <v>11</v>
-      </c>
-      <c r="DV21">
-        <v>4</v>
-      </c>
-      <c r="DW21">
-        <v>4</v>
-      </c>
-      <c r="DX21">
-        <v>2</v>
-      </c>
-      <c r="DY21">
-        <v>4</v>
-      </c>
       <c r="DZ21">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="EA21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="EB21">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="EC21">
-        <v>13</v>
-      </c>
-      <c r="ED21">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:133" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>134</v>
       </c>
@@ -5797,49 +5764,46 @@
         <v>1</v>
       </c>
       <c r="DQ22">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="DR22">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="DS22">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="DT22">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="DU22">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="DV22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="DW22">
         <v>0</v>
       </c>
       <c r="DX22">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="DY22">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="DZ22">
         <v>5</v>
       </c>
       <c r="EA22">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="EB22">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="EC22">
-        <v>3</v>
-      </c>
-      <c r="ED22">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:133" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>135</v>
       </c>
@@ -6198,52 +6162,49 @@
         <v>5</v>
       </c>
       <c r="DP23">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="DQ23">
+        <v>12</v>
+      </c>
+      <c r="DR23">
         <v>6</v>
       </c>
-      <c r="DR23">
-        <v>12</v>
-      </c>
       <c r="DS23">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="DT23">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="DU23">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="DV23">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="DW23">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="DX23">
         <v>4</v>
       </c>
       <c r="DY23">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="DZ23">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="EA23">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="EB23">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="EC23">
-        <v>2</v>
-      </c>
-      <c r="ED23">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:133" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>136</v>
       </c>
@@ -6602,52 +6563,49 @@
         <v>2</v>
       </c>
       <c r="DP24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="DQ24">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="DR24">
+        <v>6</v>
+      </c>
+      <c r="DS24">
         <v>16</v>
       </c>
-      <c r="DS24">
-        <v>6</v>
-      </c>
       <c r="DT24">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="DU24">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="DV24">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="DW24">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="DX24">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="DY24">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="DZ24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="EA24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="EB24">
         <v>3</v>
       </c>
       <c r="EC24">
-        <v>3</v>
-      </c>
-      <c r="ED24">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:133" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>137</v>
       </c>
@@ -7009,49 +6967,46 @@
         <v>4</v>
       </c>
       <c r="DQ25">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="DR25">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="DS25">
+        <v>18</v>
+      </c>
+      <c r="DT25">
         <v>9</v>
       </c>
-      <c r="DT25">
-        <v>18</v>
-      </c>
       <c r="DU25">
+        <v>3</v>
+      </c>
+      <c r="DV25">
+        <v>13</v>
+      </c>
+      <c r="DW25">
+        <v>6</v>
+      </c>
+      <c r="DX25">
+        <v>10</v>
+      </c>
+      <c r="DY25">
+        <v>8</v>
+      </c>
+      <c r="DZ25">
+        <v>3</v>
+      </c>
+      <c r="EA25">
         <v>9</v>
       </c>
-      <c r="DV25">
-        <v>3</v>
-      </c>
-      <c r="DW25">
-        <v>13</v>
-      </c>
-      <c r="DX25">
-        <v>6</v>
-      </c>
-      <c r="DY25">
-        <v>10</v>
-      </c>
-      <c r="DZ25">
-        <v>8</v>
-      </c>
-      <c r="EA25">
-        <v>3</v>
-      </c>
       <c r="EB25">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="EC25">
-        <v>15</v>
-      </c>
-      <c r="ED25">
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:133" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>138</v>
       </c>
@@ -7410,52 +7365,49 @@
         <v>11</v>
       </c>
       <c r="DP26">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="DQ26">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="DR26">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="DS26">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="DT26">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="DU26">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="DV26">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="DW26">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="DX26">
+        <v>9</v>
+      </c>
+      <c r="DY26">
         <v>6</v>
       </c>
-      <c r="DY26">
-        <v>9</v>
-      </c>
       <c r="DZ26">
+        <v>7</v>
+      </c>
+      <c r="EA26">
+        <v>10</v>
+      </c>
+      <c r="EB26">
         <v>6</v>
       </c>
-      <c r="EA26">
-        <v>7</v>
-      </c>
-      <c r="EB26">
-        <v>10</v>
-      </c>
       <c r="EC26">
-        <v>6</v>
-      </c>
-      <c r="ED26">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:133" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>139</v>
       </c>
@@ -7814,52 +7766,49 @@
         <v>4</v>
       </c>
       <c r="DP27">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="DQ27">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="DR27">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="DS27">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="DT27">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="DU27">
         <v>8</v>
       </c>
       <c r="DV27">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="DW27">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="DX27">
         <v>0</v>
       </c>
       <c r="DY27">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="DZ27">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="EA27">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="EB27">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="EC27">
-        <v>11</v>
-      </c>
-      <c r="ED27">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:133" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>140</v>
       </c>
@@ -8221,49 +8170,46 @@
         <v>0</v>
       </c>
       <c r="DQ28">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="DR28">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="DS28">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="DT28">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="DU28">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="DV28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="DW28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DX28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="DY28">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="DZ28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EA28">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="EB28">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="EC28">
-        <v>1</v>
-      </c>
-      <c r="ED28">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:133" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>141</v>
       </c>
@@ -8625,16 +8571,16 @@
         <v>0</v>
       </c>
       <c r="DQ29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DR29">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="DS29">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="DT29">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="DU29">
         <v>1</v>
@@ -8649,25 +8595,22 @@
         <v>1</v>
       </c>
       <c r="DY29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DZ29">
         <v>0</v>
       </c>
       <c r="EA29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="EB29">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="EC29">
-        <v>3</v>
-      </c>
-      <c r="ED29">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:133" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>142</v>
       </c>
@@ -9026,52 +8969,49 @@
         <v>2</v>
       </c>
       <c r="DP30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DQ30">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="DR30">
+        <v>0</v>
+      </c>
+      <c r="DS30">
+        <v>4</v>
+      </c>
+      <c r="DT30">
         <v>10</v>
       </c>
-      <c r="DS30">
-        <v>0</v>
-      </c>
-      <c r="DT30">
-        <v>4</v>
-      </c>
       <c r="DU30">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="DV30">
         <v>1</v>
       </c>
       <c r="DW30">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="DX30">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="DY30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="DZ30">
         <v>2</v>
       </c>
       <c r="EA30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="EB30">
         <v>1</v>
       </c>
       <c r="EC30">
-        <v>1</v>
-      </c>
-      <c r="ED30">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:133" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>143</v>
       </c>
@@ -9430,52 +9370,49 @@
         <v>2</v>
       </c>
       <c r="DP31">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="DQ31">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="DR31">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="DS31">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="DT31">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="DU31">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="DV31">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="DW31">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="DX31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="DY31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="DZ31">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="EA31">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="EB31">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="EC31">
-        <v>5</v>
-      </c>
-      <c r="ED31">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:133" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>144</v>
       </c>
@@ -9834,19 +9771,19 @@
         <v>0</v>
       </c>
       <c r="DP32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DQ32">
         <v>1</v>
       </c>
       <c r="DR32">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="DS32">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="DT32">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="DU32">
         <v>5</v>
@@ -9855,31 +9792,28 @@
         <v>5</v>
       </c>
       <c r="DW32">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="DX32">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="DY32">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="DZ32">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="EA32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EB32">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="EC32">
-        <v>4</v>
-      </c>
-      <c r="ED32">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:133" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>145</v>
       </c>
@@ -10241,49 +10175,46 @@
         <v>1</v>
       </c>
       <c r="DQ33">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="DR33">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="DS33">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="DT33">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="DU33">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="DV33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="DW33">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="DX33">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="DY33">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="DZ33">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="EA33">
         <v>2</v>
       </c>
       <c r="EB33">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="EC33">
-        <v>0</v>
-      </c>
-      <c r="ED33">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:133" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>146</v>
       </c>
@@ -10645,7 +10576,7 @@
         <v>0</v>
       </c>
       <c r="DQ34">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="DR34">
         <v>5</v>
@@ -10657,10 +10588,10 @@
         <v>5</v>
       </c>
       <c r="DU34">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="DV34">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="DW34">
         <v>1</v>
@@ -10669,25 +10600,22 @@
         <v>1</v>
       </c>
       <c r="DY34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DZ34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EA34">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="EB34">
         <v>4</v>
       </c>
       <c r="EC34">
-        <v>4</v>
-      </c>
-      <c r="ED34">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:133" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>147</v>
       </c>
@@ -11046,52 +10974,49 @@
         <v>0</v>
       </c>
       <c r="DP35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DQ35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DR35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DS35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DT35">
         <v>0</v>
       </c>
       <c r="DU35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DV35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DW35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DX35">
         <v>1</v>
       </c>
       <c r="DY35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DZ35">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="EA35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="EB35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EC35">
         <v>0</v>
       </c>
-      <c r="ED35">
-        <v>0</v>
-      </c>
     </row>
-    <row r="36" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:133" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>148</v>
       </c>
@@ -11450,25 +11375,25 @@
         <v>0</v>
       </c>
       <c r="DP36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DQ36">
         <v>1</v>
       </c>
       <c r="DR36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DS36">
         <v>0</v>
       </c>
       <c r="DT36">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="DU36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="DV36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DW36">
         <v>0</v>
@@ -11483,19 +11408,16 @@
         <v>0</v>
       </c>
       <c r="EA36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EB36">
         <v>1</v>
       </c>
       <c r="EC36">
-        <v>1</v>
-      </c>
-      <c r="ED36">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:133" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>149</v>
       </c>
@@ -11854,25 +11776,25 @@
         <v>0</v>
       </c>
       <c r="DP37">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="DQ37">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="DR37">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="DS37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="DT37">
         <v>2</v>
       </c>
       <c r="DU37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="DV37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DW37">
         <v>0</v>
@@ -11884,22 +11806,19 @@
         <v>0</v>
       </c>
       <c r="DZ37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EA37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EB37">
         <v>0</v>
       </c>
       <c r="EC37">
-        <v>0</v>
-      </c>
-      <c r="ED37">
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:133" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>150</v>
       </c>
@@ -12261,34 +12180,34 @@
         <v>0</v>
       </c>
       <c r="DQ38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DR38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DS38">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="DT38">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="DU38">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="DV38">
         <v>2</v>
       </c>
       <c r="DW38">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="DX38">
         <v>0</v>
       </c>
       <c r="DY38">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="DZ38">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="EA38">
         <v>0</v>
@@ -12299,11 +12218,8 @@
       <c r="EC38">
         <v>0</v>
       </c>
-      <c r="ED38">
-        <v>0</v>
-      </c>
     </row>
-    <row r="39" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:133" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>151</v>
       </c>
@@ -12671,13 +12587,13 @@
         <v>0</v>
       </c>
       <c r="DS39">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="DT39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="DU39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DV39">
         <v>0</v>
@@ -12703,11 +12619,8 @@
       <c r="EC39">
         <v>0</v>
       </c>
-      <c r="ED39">
-        <v>0</v>
-      </c>
     </row>
-    <row r="40" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:133" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>152</v>
       </c>
@@ -13105,9 +13018,6 @@
         <v>0</v>
       </c>
       <c r="EC40">
-        <v>0</v>
-      </c>
-      <c r="ED40">
         <v>0</v>
       </c>
     </row>

--- a/01. HUB/volumen & xenofobia/tasa xenobia/tasa xenofobia regiones/colombia_regiones_categories_.xlsx
+++ b/01. HUB/volumen & xenofobia/tasa xenobia/tasa xenofobia regiones/colombia_regiones_categories_.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10715"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Documents\BX-HUB-Indicadores\01. HUB\volumen &amp; xenofobia\tasa xenobia\tasa xenofobia regiones\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/Documents/Documentos El Barometro/GitHub/BX-HUB-Indicadores/01. HUB/volumen &amp; xenofobia/tasa xenobia/tasa xenofobia regiones/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A95259D9-6F6A-4DC5-8EA3-40666B0C6790}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFFA48C6-B3B3-6347-8A5F-5942A81A68B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25680" yWindow="680" windowWidth="25360" windowHeight="19260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="192">
   <si>
     <t>Chart Data Export</t>
   </si>
@@ -570,6 +570,45 @@
   </si>
   <si>
     <t>2025-03-31 05:00:00.0</t>
+  </si>
+  <si>
+    <t>2025-04-07 05:00:00.0</t>
+  </si>
+  <si>
+    <t>2025-04-14 05:00:00.0</t>
+  </si>
+  <si>
+    <t>2025-04-21 05:00:00.0</t>
+  </si>
+  <si>
+    <t>2025-04-28 05:00:00.0</t>
+  </si>
+  <si>
+    <t>2025-05-05 05:00:00.0</t>
+  </si>
+  <si>
+    <t>2025-05-12 05:00:00.0</t>
+  </si>
+  <si>
+    <t>2025-05-19 05:00:00.0</t>
+  </si>
+  <si>
+    <t>2025-05-26 05:00:00.0</t>
+  </si>
+  <si>
+    <t>2025-06-02 05:00:00.0</t>
+  </si>
+  <si>
+    <t>2025-06-09 05:00:00.0</t>
+  </si>
+  <si>
+    <t>2025-06-16 05:00:00.0</t>
+  </si>
+  <si>
+    <t>2025-06-23 05:00:00.0</t>
+  </si>
+  <si>
+    <t>2025-06-30 05:00:00.0</t>
   </si>
 </sst>
 </file>
@@ -911,15 +950,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:EC40"/>
+  <dimension ref="A1:EP40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="DD4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="DP4" sqref="DP1:DP1048576"/>
+    <sheetView tabSelected="1" topLeftCell="DT4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="EP11" sqref="EP11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:146" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -927,7 +966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:146" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -935,7 +974,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:146" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -943,7 +982,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:146" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -951,7 +990,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:146" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -959,7 +998,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:146" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -967,7 +1006,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:146" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -975,7 +1014,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:146" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -983,7 +1022,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:146" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -991,7 +1030,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:146" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>3</v>
       </c>
@@ -1391,8 +1430,47 @@
       <c r="EC11" t="s">
         <v>178</v>
       </c>
+      <c r="ED11" t="s">
+        <v>179</v>
+      </c>
+      <c r="EE11" t="s">
+        <v>180</v>
+      </c>
+      <c r="EF11" t="s">
+        <v>181</v>
+      </c>
+      <c r="EG11" t="s">
+        <v>182</v>
+      </c>
+      <c r="EH11" t="s">
+        <v>183</v>
+      </c>
+      <c r="EI11" t="s">
+        <v>184</v>
+      </c>
+      <c r="EJ11" t="s">
+        <v>185</v>
+      </c>
+      <c r="EK11" t="s">
+        <v>186</v>
+      </c>
+      <c r="EL11" t="s">
+        <v>187</v>
+      </c>
+      <c r="EM11" t="s">
+        <v>188</v>
+      </c>
+      <c r="EN11" t="s">
+        <v>189</v>
+      </c>
+      <c r="EO11" t="s">
+        <v>190</v>
+      </c>
+      <c r="EP11" t="s">
+        <v>191</v>
+      </c>
     </row>
-    <row r="12" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:146" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>124</v>
       </c>
@@ -1792,8 +1870,47 @@
       <c r="EC12">
         <v>65</v>
       </c>
+      <c r="ED12">
+        <v>396</v>
+      </c>
+      <c r="EE12">
+        <v>359</v>
+      </c>
+      <c r="EF12">
+        <v>374</v>
+      </c>
+      <c r="EG12">
+        <v>333</v>
+      </c>
+      <c r="EH12">
+        <v>293</v>
+      </c>
+      <c r="EI12">
+        <v>298</v>
+      </c>
+      <c r="EJ12">
+        <v>308</v>
+      </c>
+      <c r="EK12">
+        <v>334</v>
+      </c>
+      <c r="EL12">
+        <v>455</v>
+      </c>
+      <c r="EM12">
+        <v>378</v>
+      </c>
+      <c r="EN12">
+        <v>353</v>
+      </c>
+      <c r="EO12">
+        <v>300</v>
+      </c>
+      <c r="EP12">
+        <v>57</v>
+      </c>
     </row>
-    <row r="13" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:146" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>125</v>
       </c>
@@ -2193,8 +2310,47 @@
       <c r="EC13">
         <v>9</v>
       </c>
+      <c r="ED13">
+        <v>78</v>
+      </c>
+      <c r="EE13">
+        <v>83</v>
+      </c>
+      <c r="EF13">
+        <v>99</v>
+      </c>
+      <c r="EG13">
+        <v>78</v>
+      </c>
+      <c r="EH13">
+        <v>80</v>
+      </c>
+      <c r="EI13">
+        <v>57</v>
+      </c>
+      <c r="EJ13">
+        <v>74</v>
+      </c>
+      <c r="EK13">
+        <v>72</v>
+      </c>
+      <c r="EL13">
+        <v>96</v>
+      </c>
+      <c r="EM13">
+        <v>86</v>
+      </c>
+      <c r="EN13">
+        <v>86</v>
+      </c>
+      <c r="EO13">
+        <v>77</v>
+      </c>
+      <c r="EP13">
+        <v>11</v>
+      </c>
     </row>
-    <row r="14" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:146" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>126</v>
       </c>
@@ -2594,8 +2750,47 @@
       <c r="EC14">
         <v>21</v>
       </c>
+      <c r="ED14">
+        <v>41</v>
+      </c>
+      <c r="EE14">
+        <v>32</v>
+      </c>
+      <c r="EF14">
+        <v>51</v>
+      </c>
+      <c r="EG14">
+        <v>58</v>
+      </c>
+      <c r="EH14">
+        <v>32</v>
+      </c>
+      <c r="EI14">
+        <v>28</v>
+      </c>
+      <c r="EJ14">
+        <v>25</v>
+      </c>
+      <c r="EK14">
+        <v>37</v>
+      </c>
+      <c r="EL14">
+        <v>88</v>
+      </c>
+      <c r="EM14">
+        <v>95</v>
+      </c>
+      <c r="EN14">
+        <v>44</v>
+      </c>
+      <c r="EO14">
+        <v>45</v>
+      </c>
+      <c r="EP14">
+        <v>4</v>
+      </c>
     </row>
-    <row r="15" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:146" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>127</v>
       </c>
@@ -2995,8 +3190,47 @@
       <c r="EC15">
         <v>7</v>
       </c>
+      <c r="ED15">
+        <v>51</v>
+      </c>
+      <c r="EE15">
+        <v>45</v>
+      </c>
+      <c r="EF15">
+        <v>60</v>
+      </c>
+      <c r="EG15">
+        <v>65</v>
+      </c>
+      <c r="EH15">
+        <v>45</v>
+      </c>
+      <c r="EI15">
+        <v>32</v>
+      </c>
+      <c r="EJ15">
+        <v>35</v>
+      </c>
+      <c r="EK15">
+        <v>54</v>
+      </c>
+      <c r="EL15">
+        <v>56</v>
+      </c>
+      <c r="EM15">
+        <v>59</v>
+      </c>
+      <c r="EN15">
+        <v>59</v>
+      </c>
+      <c r="EO15">
+        <v>39</v>
+      </c>
+      <c r="EP15">
+        <v>7</v>
+      </c>
     </row>
-    <row r="16" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:146" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>128</v>
       </c>
@@ -3396,8 +3630,47 @@
       <c r="EC16">
         <v>7</v>
       </c>
+      <c r="ED16">
+        <v>27</v>
+      </c>
+      <c r="EE16">
+        <v>17</v>
+      </c>
+      <c r="EF16">
+        <v>13</v>
+      </c>
+      <c r="EG16">
+        <v>14</v>
+      </c>
+      <c r="EH16">
+        <v>27</v>
+      </c>
+      <c r="EI16">
+        <v>16</v>
+      </c>
+      <c r="EJ16">
+        <v>16</v>
+      </c>
+      <c r="EK16">
+        <v>17</v>
+      </c>
+      <c r="EL16">
+        <v>54</v>
+      </c>
+      <c r="EM16">
+        <v>26</v>
+      </c>
+      <c r="EN16">
+        <v>17</v>
+      </c>
+      <c r="EO16">
+        <v>16</v>
+      </c>
+      <c r="EP16">
+        <v>1</v>
+      </c>
     </row>
-    <row r="17" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:146" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>129</v>
       </c>
@@ -3797,8 +4070,47 @@
       <c r="EC17">
         <v>7</v>
       </c>
+      <c r="ED17">
+        <v>33</v>
+      </c>
+      <c r="EE17">
+        <v>27</v>
+      </c>
+      <c r="EF17">
+        <v>29</v>
+      </c>
+      <c r="EG17">
+        <v>16</v>
+      </c>
+      <c r="EH17">
+        <v>10</v>
+      </c>
+      <c r="EI17">
+        <v>22</v>
+      </c>
+      <c r="EJ17">
+        <v>13</v>
+      </c>
+      <c r="EK17">
+        <v>14</v>
+      </c>
+      <c r="EL17">
+        <v>16</v>
+      </c>
+      <c r="EM17">
+        <v>21</v>
+      </c>
+      <c r="EN17">
+        <v>26</v>
+      </c>
+      <c r="EO17">
+        <v>19</v>
+      </c>
+      <c r="EP17">
+        <v>7</v>
+      </c>
     </row>
-    <row r="18" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:146" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>130</v>
       </c>
@@ -4198,8 +4510,47 @@
       <c r="EC18">
         <v>0</v>
       </c>
+      <c r="ED18">
+        <v>7</v>
+      </c>
+      <c r="EE18">
+        <v>6</v>
+      </c>
+      <c r="EF18">
+        <v>7</v>
+      </c>
+      <c r="EG18">
+        <v>5</v>
+      </c>
+      <c r="EH18">
+        <v>8</v>
+      </c>
+      <c r="EI18">
+        <v>3</v>
+      </c>
+      <c r="EJ18">
+        <v>4</v>
+      </c>
+      <c r="EK18">
+        <v>3</v>
+      </c>
+      <c r="EL18">
+        <v>4</v>
+      </c>
+      <c r="EM18">
+        <v>9</v>
+      </c>
+      <c r="EN18">
+        <v>5</v>
+      </c>
+      <c r="EO18">
+        <v>5</v>
+      </c>
+      <c r="EP18">
+        <v>0</v>
+      </c>
     </row>
-    <row r="19" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:146" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>131</v>
       </c>
@@ -4599,8 +4950,47 @@
       <c r="EC19">
         <v>1</v>
       </c>
+      <c r="ED19">
+        <v>2</v>
+      </c>
+      <c r="EE19">
+        <v>2</v>
+      </c>
+      <c r="EF19">
+        <v>2</v>
+      </c>
+      <c r="EG19">
+        <v>2</v>
+      </c>
+      <c r="EH19">
+        <v>2</v>
+      </c>
+      <c r="EI19">
+        <v>3</v>
+      </c>
+      <c r="EJ19">
+        <v>4</v>
+      </c>
+      <c r="EK19">
+        <v>4</v>
+      </c>
+      <c r="EL19">
+        <v>6</v>
+      </c>
+      <c r="EM19">
+        <v>4</v>
+      </c>
+      <c r="EN19">
+        <v>2</v>
+      </c>
+      <c r="EO19">
+        <v>1</v>
+      </c>
+      <c r="EP19">
+        <v>1</v>
+      </c>
     </row>
-    <row r="20" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:146" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>132</v>
       </c>
@@ -5000,8 +5390,47 @@
       <c r="EC20">
         <v>0</v>
       </c>
+      <c r="ED20">
+        <v>1</v>
+      </c>
+      <c r="EE20">
+        <v>1</v>
+      </c>
+      <c r="EF20">
+        <v>0</v>
+      </c>
+      <c r="EG20">
+        <v>3</v>
+      </c>
+      <c r="EH20">
+        <v>1</v>
+      </c>
+      <c r="EI20">
+        <v>0</v>
+      </c>
+      <c r="EJ20">
+        <v>1</v>
+      </c>
+      <c r="EK20">
+        <v>2</v>
+      </c>
+      <c r="EL20">
+        <v>2</v>
+      </c>
+      <c r="EM20">
+        <v>2</v>
+      </c>
+      <c r="EN20">
+        <v>0</v>
+      </c>
+      <c r="EO20">
+        <v>1</v>
+      </c>
+      <c r="EP20">
+        <v>0</v>
+      </c>
     </row>
-    <row r="21" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:146" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>133</v>
       </c>
@@ -5401,8 +5830,47 @@
       <c r="EC21">
         <v>1</v>
       </c>
+      <c r="ED21">
+        <v>2</v>
+      </c>
+      <c r="EE21">
+        <v>4</v>
+      </c>
+      <c r="EF21">
+        <v>3</v>
+      </c>
+      <c r="EG21">
+        <v>0</v>
+      </c>
+      <c r="EH21">
+        <v>2</v>
+      </c>
+      <c r="EI21">
+        <v>2</v>
+      </c>
+      <c r="EJ21">
+        <v>6</v>
+      </c>
+      <c r="EK21">
+        <v>7</v>
+      </c>
+      <c r="EL21">
+        <v>1</v>
+      </c>
+      <c r="EM21">
+        <v>6</v>
+      </c>
+      <c r="EN21">
+        <v>17</v>
+      </c>
+      <c r="EO21">
+        <v>5</v>
+      </c>
+      <c r="EP21">
+        <v>0</v>
+      </c>
     </row>
-    <row r="22" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:146" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>134</v>
       </c>
@@ -5802,8 +6270,47 @@
       <c r="EC22">
         <v>1</v>
       </c>
+      <c r="ED22">
+        <v>3</v>
+      </c>
+      <c r="EE22">
+        <v>4</v>
+      </c>
+      <c r="EF22">
+        <v>4</v>
+      </c>
+      <c r="EG22">
+        <v>5</v>
+      </c>
+      <c r="EH22">
+        <v>5</v>
+      </c>
+      <c r="EI22">
+        <v>4</v>
+      </c>
+      <c r="EJ22">
+        <v>3</v>
+      </c>
+      <c r="EK22">
+        <v>4</v>
+      </c>
+      <c r="EL22">
+        <v>1</v>
+      </c>
+      <c r="EM22">
+        <v>7</v>
+      </c>
+      <c r="EN22">
+        <v>5</v>
+      </c>
+      <c r="EO22">
+        <v>1</v>
+      </c>
+      <c r="EP22">
+        <v>0</v>
+      </c>
     </row>
-    <row r="23" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:146" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>135</v>
       </c>
@@ -6203,8 +6710,47 @@
       <c r="EC23">
         <v>0</v>
       </c>
+      <c r="ED23">
+        <v>7</v>
+      </c>
+      <c r="EE23">
+        <v>3</v>
+      </c>
+      <c r="EF23">
+        <v>5</v>
+      </c>
+      <c r="EG23">
+        <v>4</v>
+      </c>
+      <c r="EH23">
+        <v>2</v>
+      </c>
+      <c r="EI23">
+        <v>4</v>
+      </c>
+      <c r="EJ23">
+        <v>11</v>
+      </c>
+      <c r="EK23">
+        <v>7</v>
+      </c>
+      <c r="EL23">
+        <v>6</v>
+      </c>
+      <c r="EM23">
+        <v>3</v>
+      </c>
+      <c r="EN23">
+        <v>9</v>
+      </c>
+      <c r="EO23">
+        <v>5</v>
+      </c>
+      <c r="EP23">
+        <v>0</v>
+      </c>
     </row>
-    <row r="24" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:146" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>136</v>
       </c>
@@ -6604,8 +7150,47 @@
       <c r="EC24">
         <v>0</v>
       </c>
+      <c r="ED24">
+        <v>0</v>
+      </c>
+      <c r="EE24">
+        <v>4</v>
+      </c>
+      <c r="EF24">
+        <v>4</v>
+      </c>
+      <c r="EG24">
+        <v>6</v>
+      </c>
+      <c r="EH24">
+        <v>3</v>
+      </c>
+      <c r="EI24">
+        <v>3</v>
+      </c>
+      <c r="EJ24">
+        <v>0</v>
+      </c>
+      <c r="EK24">
+        <v>1</v>
+      </c>
+      <c r="EL24">
+        <v>7</v>
+      </c>
+      <c r="EM24">
+        <v>7</v>
+      </c>
+      <c r="EN24">
+        <v>3</v>
+      </c>
+      <c r="EO24">
+        <v>5</v>
+      </c>
+      <c r="EP24">
+        <v>0</v>
+      </c>
     </row>
-    <row r="25" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:146" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>137</v>
       </c>
@@ -7005,8 +7590,47 @@
       <c r="EC25">
         <v>2</v>
       </c>
+      <c r="ED25">
+        <v>12</v>
+      </c>
+      <c r="EE25">
+        <v>10</v>
+      </c>
+      <c r="EF25">
+        <v>14</v>
+      </c>
+      <c r="EG25">
+        <v>23</v>
+      </c>
+      <c r="EH25">
+        <v>9</v>
+      </c>
+      <c r="EI25">
+        <v>3</v>
+      </c>
+      <c r="EJ25">
+        <v>11</v>
+      </c>
+      <c r="EK25">
+        <v>14</v>
+      </c>
+      <c r="EL25">
+        <v>13</v>
+      </c>
+      <c r="EM25">
+        <v>10</v>
+      </c>
+      <c r="EN25">
+        <v>7</v>
+      </c>
+      <c r="EO25">
+        <v>2</v>
+      </c>
+      <c r="EP25">
+        <v>0</v>
+      </c>
     </row>
-    <row r="26" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:146" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>138</v>
       </c>
@@ -7406,8 +8030,47 @@
       <c r="EC26">
         <v>0</v>
       </c>
+      <c r="ED26">
+        <v>8</v>
+      </c>
+      <c r="EE26">
+        <v>6</v>
+      </c>
+      <c r="EF26">
+        <v>8</v>
+      </c>
+      <c r="EG26">
+        <v>9</v>
+      </c>
+      <c r="EH26">
+        <v>4</v>
+      </c>
+      <c r="EI26">
+        <v>3</v>
+      </c>
+      <c r="EJ26">
+        <v>6</v>
+      </c>
+      <c r="EK26">
+        <v>10</v>
+      </c>
+      <c r="EL26">
+        <v>7</v>
+      </c>
+      <c r="EM26">
+        <v>7</v>
+      </c>
+      <c r="EN26">
+        <v>5</v>
+      </c>
+      <c r="EO26">
+        <v>5</v>
+      </c>
+      <c r="EP26">
+        <v>1</v>
+      </c>
     </row>
-    <row r="27" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:146" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>139</v>
       </c>
@@ -7807,8 +8470,47 @@
       <c r="EC27">
         <v>1</v>
       </c>
+      <c r="ED27">
+        <v>0</v>
+      </c>
+      <c r="EE27">
+        <v>1</v>
+      </c>
+      <c r="EF27">
+        <v>3</v>
+      </c>
+      <c r="EG27">
+        <v>7</v>
+      </c>
+      <c r="EH27">
+        <v>2</v>
+      </c>
+      <c r="EI27">
+        <v>3</v>
+      </c>
+      <c r="EJ27">
+        <v>3</v>
+      </c>
+      <c r="EK27">
+        <v>5</v>
+      </c>
+      <c r="EL27">
+        <v>3</v>
+      </c>
+      <c r="EM27">
+        <v>5</v>
+      </c>
+      <c r="EN27">
+        <v>1</v>
+      </c>
+      <c r="EO27">
+        <v>2</v>
+      </c>
+      <c r="EP27">
+        <v>1</v>
+      </c>
     </row>
-    <row r="28" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:146" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>140</v>
       </c>
@@ -8208,8 +8910,47 @@
       <c r="EC28">
         <v>0</v>
       </c>
+      <c r="ED28">
+        <v>3</v>
+      </c>
+      <c r="EE28">
+        <v>2</v>
+      </c>
+      <c r="EF28">
+        <v>0</v>
+      </c>
+      <c r="EG28">
+        <v>2</v>
+      </c>
+      <c r="EH28">
+        <v>2</v>
+      </c>
+      <c r="EI28">
+        <v>2</v>
+      </c>
+      <c r="EJ28">
+        <v>1</v>
+      </c>
+      <c r="EK28">
+        <v>1</v>
+      </c>
+      <c r="EL28">
+        <v>1</v>
+      </c>
+      <c r="EM28">
+        <v>3</v>
+      </c>
+      <c r="EN28">
+        <v>1</v>
+      </c>
+      <c r="EO28">
+        <v>2</v>
+      </c>
+      <c r="EP28">
+        <v>0</v>
+      </c>
     </row>
-    <row r="29" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:146" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>141</v>
       </c>
@@ -8609,8 +9350,47 @@
       <c r="EC29">
         <v>0</v>
       </c>
+      <c r="ED29">
+        <v>0</v>
+      </c>
+      <c r="EE29">
+        <v>0</v>
+      </c>
+      <c r="EF29">
+        <v>1</v>
+      </c>
+      <c r="EG29">
+        <v>0</v>
+      </c>
+      <c r="EH29">
+        <v>0</v>
+      </c>
+      <c r="EI29">
+        <v>0</v>
+      </c>
+      <c r="EJ29">
+        <v>3</v>
+      </c>
+      <c r="EK29">
+        <v>4</v>
+      </c>
+      <c r="EL29">
+        <v>1</v>
+      </c>
+      <c r="EM29">
+        <v>3</v>
+      </c>
+      <c r="EN29">
+        <v>0</v>
+      </c>
+      <c r="EO29">
+        <v>0</v>
+      </c>
+      <c r="EP29">
+        <v>0</v>
+      </c>
     </row>
-    <row r="30" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:146" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>142</v>
       </c>
@@ -9010,8 +9790,47 @@
       <c r="EC30">
         <v>0</v>
       </c>
+      <c r="ED30">
+        <v>1</v>
+      </c>
+      <c r="EE30">
+        <v>2</v>
+      </c>
+      <c r="EF30">
+        <v>1</v>
+      </c>
+      <c r="EG30">
+        <v>3</v>
+      </c>
+      <c r="EH30">
+        <v>0</v>
+      </c>
+      <c r="EI30">
+        <v>0</v>
+      </c>
+      <c r="EJ30">
+        <v>0</v>
+      </c>
+      <c r="EK30">
+        <v>2</v>
+      </c>
+      <c r="EL30">
+        <v>1</v>
+      </c>
+      <c r="EM30">
+        <v>1</v>
+      </c>
+      <c r="EN30">
+        <v>2</v>
+      </c>
+      <c r="EO30">
+        <v>0</v>
+      </c>
+      <c r="EP30">
+        <v>0</v>
+      </c>
     </row>
-    <row r="31" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:146" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>143</v>
       </c>
@@ -9411,8 +10230,47 @@
       <c r="EC31">
         <v>0</v>
       </c>
+      <c r="ED31">
+        <v>5</v>
+      </c>
+      <c r="EE31">
+        <v>0</v>
+      </c>
+      <c r="EF31">
+        <v>2</v>
+      </c>
+      <c r="EG31">
+        <v>2</v>
+      </c>
+      <c r="EH31">
+        <v>1</v>
+      </c>
+      <c r="EI31">
+        <v>7</v>
+      </c>
+      <c r="EJ31">
+        <v>0</v>
+      </c>
+      <c r="EK31">
+        <v>1</v>
+      </c>
+      <c r="EL31">
+        <v>2</v>
+      </c>
+      <c r="EM31">
+        <v>6</v>
+      </c>
+      <c r="EN31">
+        <v>1</v>
+      </c>
+      <c r="EO31">
+        <v>2</v>
+      </c>
+      <c r="EP31">
+        <v>0</v>
+      </c>
     </row>
-    <row r="32" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:146" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>144</v>
       </c>
@@ -9812,8 +10670,47 @@
       <c r="EC32">
         <v>0</v>
       </c>
+      <c r="ED32">
+        <v>5</v>
+      </c>
+      <c r="EE32">
+        <v>2</v>
+      </c>
+      <c r="EF32">
+        <v>3</v>
+      </c>
+      <c r="EG32">
+        <v>3</v>
+      </c>
+      <c r="EH32">
+        <v>0</v>
+      </c>
+      <c r="EI32">
+        <v>0</v>
+      </c>
+      <c r="EJ32">
+        <v>3</v>
+      </c>
+      <c r="EK32">
+        <v>2</v>
+      </c>
+      <c r="EL32">
+        <v>1</v>
+      </c>
+      <c r="EM32">
+        <v>3</v>
+      </c>
+      <c r="EN32">
+        <v>4</v>
+      </c>
+      <c r="EO32">
+        <v>1</v>
+      </c>
+      <c r="EP32">
+        <v>0</v>
+      </c>
     </row>
-    <row r="33" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:146" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>145</v>
       </c>
@@ -10213,8 +11110,47 @@
       <c r="EC33">
         <v>1</v>
       </c>
+      <c r="ED33">
+        <v>6</v>
+      </c>
+      <c r="EE33">
+        <v>3</v>
+      </c>
+      <c r="EF33">
+        <v>0</v>
+      </c>
+      <c r="EG33">
+        <v>2</v>
+      </c>
+      <c r="EH33">
+        <v>2</v>
+      </c>
+      <c r="EI33">
+        <v>1</v>
+      </c>
+      <c r="EJ33">
+        <v>0</v>
+      </c>
+      <c r="EK33">
+        <v>0</v>
+      </c>
+      <c r="EL33">
+        <v>2</v>
+      </c>
+      <c r="EM33">
+        <v>3</v>
+      </c>
+      <c r="EN33">
+        <v>0</v>
+      </c>
+      <c r="EO33">
+        <v>1</v>
+      </c>
+      <c r="EP33">
+        <v>0</v>
+      </c>
     </row>
-    <row r="34" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:146" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>146</v>
       </c>
@@ -10614,8 +11550,47 @@
       <c r="EC34">
         <v>0</v>
       </c>
+      <c r="ED34">
+        <v>3</v>
+      </c>
+      <c r="EE34">
+        <v>2</v>
+      </c>
+      <c r="EF34">
+        <v>2</v>
+      </c>
+      <c r="EG34">
+        <v>4</v>
+      </c>
+      <c r="EH34">
+        <v>3</v>
+      </c>
+      <c r="EI34">
+        <v>0</v>
+      </c>
+      <c r="EJ34">
+        <v>2</v>
+      </c>
+      <c r="EK34">
+        <v>2</v>
+      </c>
+      <c r="EL34">
+        <v>0</v>
+      </c>
+      <c r="EM34">
+        <v>0</v>
+      </c>
+      <c r="EN34">
+        <v>1</v>
+      </c>
+      <c r="EO34">
+        <v>4</v>
+      </c>
+      <c r="EP34">
+        <v>0</v>
+      </c>
     </row>
-    <row r="35" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:146" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>147</v>
       </c>
@@ -11015,8 +11990,47 @@
       <c r="EC35">
         <v>0</v>
       </c>
+      <c r="ED35">
+        <v>0</v>
+      </c>
+      <c r="EE35">
+        <v>0</v>
+      </c>
+      <c r="EF35">
+        <v>0</v>
+      </c>
+      <c r="EG35">
+        <v>1</v>
+      </c>
+      <c r="EH35">
+        <v>1</v>
+      </c>
+      <c r="EI35">
+        <v>4</v>
+      </c>
+      <c r="EJ35">
+        <v>0</v>
+      </c>
+      <c r="EK35">
+        <v>2</v>
+      </c>
+      <c r="EL35">
+        <v>2</v>
+      </c>
+      <c r="EM35">
+        <v>0</v>
+      </c>
+      <c r="EN35">
+        <v>1</v>
+      </c>
+      <c r="EO35">
+        <v>1</v>
+      </c>
+      <c r="EP35">
+        <v>0</v>
+      </c>
     </row>
-    <row r="36" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:146" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>148</v>
       </c>
@@ -11416,8 +12430,47 @@
       <c r="EC36">
         <v>0</v>
       </c>
+      <c r="ED36">
+        <v>0</v>
+      </c>
+      <c r="EE36">
+        <v>1</v>
+      </c>
+      <c r="EF36">
+        <v>0</v>
+      </c>
+      <c r="EG36">
+        <v>0</v>
+      </c>
+      <c r="EH36">
+        <v>0</v>
+      </c>
+      <c r="EI36">
+        <v>0</v>
+      </c>
+      <c r="EJ36">
+        <v>0</v>
+      </c>
+      <c r="EK36">
+        <v>0</v>
+      </c>
+      <c r="EL36">
+        <v>0</v>
+      </c>
+      <c r="EM36">
+        <v>0</v>
+      </c>
+      <c r="EN36">
+        <v>0</v>
+      </c>
+      <c r="EO36">
+        <v>0</v>
+      </c>
+      <c r="EP36">
+        <v>0</v>
+      </c>
     </row>
-    <row r="37" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:146" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>149</v>
       </c>
@@ -11817,8 +12870,47 @@
       <c r="EC37">
         <v>1</v>
       </c>
+      <c r="ED37">
+        <v>0</v>
+      </c>
+      <c r="EE37">
+        <v>0</v>
+      </c>
+      <c r="EF37">
+        <v>0</v>
+      </c>
+      <c r="EG37">
+        <v>1</v>
+      </c>
+      <c r="EH37">
+        <v>0</v>
+      </c>
+      <c r="EI37">
+        <v>0</v>
+      </c>
+      <c r="EJ37">
+        <v>0</v>
+      </c>
+      <c r="EK37">
+        <v>0</v>
+      </c>
+      <c r="EL37">
+        <v>1</v>
+      </c>
+      <c r="EM37">
+        <v>1</v>
+      </c>
+      <c r="EN37">
+        <v>0</v>
+      </c>
+      <c r="EO37">
+        <v>2</v>
+      </c>
+      <c r="EP37">
+        <v>0</v>
+      </c>
     </row>
-    <row r="38" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:146" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>150</v>
       </c>
@@ -12218,8 +13310,47 @@
       <c r="EC38">
         <v>0</v>
       </c>
+      <c r="ED38">
+        <v>0</v>
+      </c>
+      <c r="EE38">
+        <v>0</v>
+      </c>
+      <c r="EF38">
+        <v>1</v>
+      </c>
+      <c r="EG38">
+        <v>0</v>
+      </c>
+      <c r="EH38">
+        <v>0</v>
+      </c>
+      <c r="EI38">
+        <v>0</v>
+      </c>
+      <c r="EJ38">
+        <v>0</v>
+      </c>
+      <c r="EK38">
+        <v>0</v>
+      </c>
+      <c r="EL38">
+        <v>0</v>
+      </c>
+      <c r="EM38">
+        <v>0</v>
+      </c>
+      <c r="EN38">
+        <v>0</v>
+      </c>
+      <c r="EO38">
+        <v>0</v>
+      </c>
+      <c r="EP38">
+        <v>0</v>
+      </c>
     </row>
-    <row r="39" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:146" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>151</v>
       </c>
@@ -12619,8 +13750,47 @@
       <c r="EC39">
         <v>0</v>
       </c>
+      <c r="ED39">
+        <v>0</v>
+      </c>
+      <c r="EE39">
+        <v>0</v>
+      </c>
+      <c r="EF39">
+        <v>1</v>
+      </c>
+      <c r="EG39">
+        <v>0</v>
+      </c>
+      <c r="EH39">
+        <v>0</v>
+      </c>
+      <c r="EI39">
+        <v>0</v>
+      </c>
+      <c r="EJ39">
+        <v>0</v>
+      </c>
+      <c r="EK39">
+        <v>0</v>
+      </c>
+      <c r="EL39">
+        <v>0</v>
+      </c>
+      <c r="EM39">
+        <v>0</v>
+      </c>
+      <c r="EN39">
+        <v>0</v>
+      </c>
+      <c r="EO39">
+        <v>0</v>
+      </c>
+      <c r="EP39">
+        <v>0</v>
+      </c>
     </row>
-    <row r="40" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:146" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>152</v>
       </c>
@@ -13018,6 +14188,45 @@
         <v>0</v>
       </c>
       <c r="EC40">
+        <v>0</v>
+      </c>
+      <c r="ED40">
+        <v>1</v>
+      </c>
+      <c r="EE40">
+        <v>0</v>
+      </c>
+      <c r="EF40">
+        <v>0</v>
+      </c>
+      <c r="EG40">
+        <v>0</v>
+      </c>
+      <c r="EH40">
+        <v>0</v>
+      </c>
+      <c r="EI40">
+        <v>0</v>
+      </c>
+      <c r="EJ40">
+        <v>0</v>
+      </c>
+      <c r="EK40">
+        <v>0</v>
+      </c>
+      <c r="EL40">
+        <v>0</v>
+      </c>
+      <c r="EM40">
+        <v>0</v>
+      </c>
+      <c r="EN40">
+        <v>0</v>
+      </c>
+      <c r="EO40">
+        <v>0</v>
+      </c>
+      <c r="EP40">
         <v>0</v>
       </c>
     </row>
